--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4744,26 +4744,26 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4744,26 +4744,26 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,16 +6338,16 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6356,12 +6356,12 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque del Sol Linares</t>
+          <t>Conservación y Mantención de ribera río Achibueno</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA.</t>
+          <t>CONSTRUCTORA ARIAL LIMITADA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>46470</v>
+        <v>101</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154799077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Parque del Sol Linares</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>Constructora La Rioja SpA.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2500</v>
+        <v>46470</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154799077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29/07/2021</t>
+          <t>27/08/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05/07/2021</t>
+          <t>29/07/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fotovolt Linares 2</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AILIN FOTOVOLTAICA SPA</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5040</v>
+        <v>2500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>05/07/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151798438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Solar Paso Cunao</t>
+          <t>Fotovolt Linares 2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BLE Asesorías e Inversiones SpA</t>
+          <t>AILIN FOTOVOLTAICA SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>9450</v>
+        <v>5040</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146645804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151798438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Linar</t>
+          <t>Parque Solar Paso Cunao</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>BLE Asesorías e Inversiones SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13500</v>
+        <v>9450</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146311300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146645804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Adelma</t>
+          <t>Planta Fotovoltaica Linar</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GR Algarrobo SpA</t>
+          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146311300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Linares Norte PMG</t>
+          <t>Planta Fotovoltaica Adelma</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,11 +823,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Parque Solar Linares Norte SpA</t>
+          <t>GR Algarrobo SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -836,12 +836,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica GENOVA</t>
+          <t>Parque Fotovoltaico Linares Norte PMG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GENOVA SOLAR SPA</t>
+          <t>Parque Solar Linares Norte SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>1065</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146007747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Picaflor Azul</t>
+          <t>Nueva Central Solar Fotovoltaica GENOVA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PFV PICAFLOR AZUL SPA</t>
+          <t>GENOVA SOLAR SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146007747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Picaflor Azul</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>PFV PICAFLOR AZUL SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque fotovoltaico San Yolando</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,20 +1010,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Isidora Solar SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145490754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque fotovoltaico San Yolando</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Isidora Solar SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/01/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145490754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Engorda Los Queltehues</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Los Queltehues Limitada</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144452935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Catitas</t>
+          <t>Engorda Los Queltehues</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PFV LAS CATITAS SPA</t>
+          <t>Agrícola y Comercial Los Queltehues Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12000</v>
+        <v>2400</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>08/11/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144452935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Solar San Antonio</t>
+          <t>Parque Fotovoltaico Las Catitas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cuenca Solar SpA.</t>
+          <t>PFV LAS CATITAS SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142551867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Solar Las Vegas</t>
+          <t>Parque Solar San Antonio</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Valle Solar SpA</t>
+          <t>Cuenca Solar SpA.</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142551867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Pachira</t>
+          <t>Parque Solar Las Vegas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EL NARANJAL SPA</t>
+          <t>Valle Solar SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10780</v>
+        <v>12000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21/06/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140780692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
+          <t>Nueva Central Solar Fotovoltaica Pachira</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,11 +1399,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EL LIMAHUE SPA</t>
+          <t>EL NARANJAL SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>8400</v>
+        <v>10780</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140781101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140780692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>EL LIMAHUE SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>8400</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/06/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140781101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Pachira</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EL NARANJAL SPA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10780</v>
+        <v>40</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>25/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139203971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
+          <t>Nueva Central Solar Fotovoltaica Pachira</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EL LIMAHUE SPA</t>
+          <t>EL NARANJAL SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8400</v>
+        <v>10780</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139204362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139203971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Linares</t>
+          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LINARES GENERACION SPA</t>
+          <t>EL LIMAHUE SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>12100</v>
+        <v>8400</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>25/05/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139204362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Nueva Central Solar Fotovoltaica Linares</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>LINARES GENERACION SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>42</v>
+        <v>12100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Ciprés</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>12250</v>
+        <v>42</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Granada</t>
+          <t>Proyecto Solar fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Granada SpA</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO HUERTOS DE LINARES</t>
+          <t>Proyecto Solar fotovoltaico Granada</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Granada SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>15085</v>
+        <v>12250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>11/07/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132533521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Granada</t>
+          <t>PROYECTO INMOBILIARIO HUERTOS DE LINARES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Granada SpA</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>12250</v>
+        <v>15085</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>22/06/2017</t>
+          <t>11/07/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132533521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Ciprés</t>
+          <t>Proyecto Solar fotovoltaico Granada</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>Granada SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Proyecto Solar Fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>20000</v>
+        <v>12250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>22/06/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Ciprés</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>12250</v>
+        <v>37</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132414045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Solar Fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>37</v>
+        <v>12250</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132414045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>EMPRÉSTITO SECTOR SAN VICTOR ÁLAMOS</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Jaime Alejandro Pérez Villagrán</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1300</v>
+        <v>37</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132094198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EMPRÉSTITO SECTOR SAN VÍCTOR ÁLAMOS</t>
+          <t>EMPRÉSTITO SECTOR SAN VICTOR ÁLAMOS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Patricio Ernesto Pérez Villagrán</t>
+          <t>Jaime Alejandro Pérez Villagrán</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/01/2017</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132039740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132094198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Actualización Operacional Planta Frutos del Maipo Linares</t>
+          <t>EMPRÉSTITO SECTOR SAN VÍCTOR ÁLAMOS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Patricio Ernesto Pérez Villagrán</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2934</v>
+        <v>1300</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08/09/2016</t>
+          <t>06/01/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131745748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132039740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Actualización Operacional Planta Frutos del Maipo Linares</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10000</v>
+        <v>2934</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>08/09/2016</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131745748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COMPLEJO ATLÉTICO LINARES</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Linares</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>8700</v>
+        <v>10000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Complejo Atlético Linares</t>
+          <t>COMPLEJO ATLÉTICO LINARES</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>19/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131316766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Complejo Atlético Linares</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Ilustre Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>19/04/2016</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131316766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,11 +2599,11 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DRENAJE SUPERFICIAL SANTA ROSA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>FRUTICOLA SABA SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/04/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129398257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07/04/2014</t>
+          <t>21/04/2014</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129371020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129398257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/02/2014</t>
+          <t>07/04/2014</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129241069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129371020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>DRENAJE SUPERFICIAL SANTA ROSA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>FRUTICOLA SABA SpA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>06/02/2014</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129241069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,11 +3175,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,12 +3304,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Chupallar SpA</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>49500</v>
+        <v>140400</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,30 +3400,30 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Eléctrica Chupallar SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>07/10/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3711,7 +3711,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sala de vantas y bodega coagra Linares</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>COAGRA S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>400</v>
+        <v>2475</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14/01/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7726763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Diseño: Mejoramiento y Ampliación Servicio Agua Potable Rural Unión San Víctor Lamas</t>
+          <t>sala de vantas y bodega coagra Linares</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Unión San Víctor Lamas</t>
+          <t>COAGRA S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1580</v>
+        <v>400</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>25/10/2012</t>
+          <t>14/01/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7464751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7726763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
+          <t>Diseño: Mejoramiento y Ampliación Servicio Agua Potable Rural Unión San Víctor Lamas</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Comité de Agua Potable Rural Unión San Víctor Lamas</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>40000</v>
+        <v>1580</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>25/10/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7464751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Achibueno</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>880</v>
+        <v>5000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6773026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA HN LINARES .</t>
+          <t>Extracción de Áridos Río Achibueno</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>30</v>
+        <v>880</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>18/04/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6621195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6773026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA HN LINARES .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6621195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,40 +4456,40 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>16500</v>
+        <v>100</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,40 +4504,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>16500</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,30 +4744,30 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>11300</v>
+        <v>1650</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Construcción de Drenaje superficial en predio Buena Vista</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola San Mariano Limitada</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>48</v>
+        <v>11300</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>02/08/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Construcción de Drenaje superficial en predio Buena Vista</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Agrícola San Mariano Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>02/08/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Explotación empréstito, en sector Chupallar 4.3 há</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1967</v>
+        <v>200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5567469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Explotación empréstito, en sector Chupallar 4.3 há</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>1967</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>02/05/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5567469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ampliación Explotación Empréstito en Sector Chupallar, Provincia de Linares</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1967</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto San Ambrosio</t>
+          <t>Ampliación Explotación Empréstito en Sector Chupallar, Provincia de Linares</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>46300</v>
+        <v>1967</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>07/12/2010</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Proyecto San Ambrosio</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,20 +5186,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>264</v>
+        <v>46300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>07/12/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>AMPLIACION Y MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE RURAL DE VARA GRUESA</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Vara Gruesa</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09/07/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>AMPLIACION Y MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE RURAL DE VARA GRUESA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Comite de Agua Potable Rural Vara Gruesa</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/07/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,7 +5815,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -5828,12 +5828,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,11 +5911,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Drenaje Purissima II . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Agrícola Purissima Limitada</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>12/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4299647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Explotación Empréstito en Sector Chupallar Embalse Ancoa VII Región (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Drenaje Purissima II . (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Agrícola Purissima Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>5825</v>
+        <v>102</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>21/12/2009</t>
+          <t>12/01/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4245401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4299647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SALA DE VENTA Y BODEGA PARA LA COMERCIALIZACION DE INSUMOS Y MAQUINARIA AGRICOLA . (e-seia)</t>
+          <t>Explotación Empréstito en Sector Chupallar Embalse Ancoa VII Región (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Compañía Agropecuaria Copeval S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>274</v>
+        <v>5825</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>21/12/2009</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4245401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>SALA DE VENTA Y BODEGA PARA LA COMERCIALIZACION DE INSUMOS Y MAQUINARIA AGRICOLA . (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Compañía Agropecuaria Copeval S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Generadora Eléctrica Roblería . (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Generadora Eléctrica Roblería Limitada.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>10/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172636&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Generadora Eléctrica Roblería . (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Generadora Eléctrica Roblería Limitada.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>377</v>
+        <v>4000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/11/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172636&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante Aspersión, en la Planta Deshidratadora de Comercial Chacabuco S.p.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Comercial Chacabuco Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>50</v>
+        <v>377</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4113226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante Aspersión, en la Planta Deshidratadora de Comercial Chacabuco S.p.A. (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Comercial Chacabuco Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>11126</v>
+        <v>50</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>11/09/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4113226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>17</v>
+        <v>11126</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>11/09/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TERMINAL DE BUSES RODOVIARIO SAN AMBROSIO S.A . (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>INMOBILIARIA E INVERSIONES RODOVIARIO SAN AMBROSIO . .</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>240075</v>
+        <v>22</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3764888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+          <t>TERMINAL DE BUSES RODOVIARIO SAN AMBROSIO S.A . (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>INMOBILIARIA E INVERSIONES RODOVIARIO SAN AMBROSIO . .</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>6300</v>
+        <v>240075</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3764888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,10 +6616,14 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Proyecto hidroeléctrico ACHIBUENO</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -6627,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>285000</v>
+        <v>6300</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6645,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6660,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Achibueno</t>
+          <t>Proyecto hidroeléctrico ACHIBUENO</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -6671,7 +6675,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela Limitada</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -6679,7 +6683,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6689,7 +6693,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,40 +6708,36 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Hidroeléctrico Achibueno</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Hidroeléctrica Centinela Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6775,17 +6775,17 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6871,17 +6871,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,25 +6911,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,11 +7055,11 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -7068,12 +7068,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,25 +7295,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,15 +7343,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,25 +7391,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7487,25 +7487,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,17 +7543,17 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,25 +7679,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,25 +7727,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,10 +7760,14 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D155" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -7771,25 +7775,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7804,30 +7808,26 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles Viña J.Bouchon y Cía Ltda. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>J.Bouchon Y Cía Ltda.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2814315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Disposición de Riles al Suelo, Mediante Micro Aspersión en la Bodega de Vinos de Comercial los Batros Ltda. Vinos Los Batros (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles Viña J.Bouchon y Cía Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7867,15 +7867,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Comercial Los Batros Ltda.</t>
+          <t>J.Bouchon Y Cía Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20/03/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2713892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2814315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Modificación del Sistema de Disposición de Riles al Suelo, Mediante Micro Aspersión en la Bodega de Vinos de Comercial los Batros Ltda. Vinos Los Batros (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7910,12 +7910,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Comercial Los Batros Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>20/03/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2713892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7963,25 +7963,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8011,25 +8011,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,11 +8063,11 @@
         </is>
       </c>
       <c r="F161" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8107,15 +8107,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8155,15 +8155,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PLANTA SEPARADORA DE SOLIDOS Y DISPOSICION DE RILES PARA RIEGO planta separadora de solidos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8198,30 +8198,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Moisés Arturo Coloma Cisternas</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>17</v>
+        <v>429</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>26/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2434014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PLANTA SEPARADORA DE SOLIDOS Y DISPOSICION DE RILES PARA RIEGO planta separadora de solidos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8246,30 +8246,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Moisés Arturo Coloma Cisternas</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>26/10/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2434014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8299,25 +8299,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8347,25 +8347,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8395,25 +8395,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8443,25 +8443,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8491,25 +8491,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,15 +8587,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8635,25 +8635,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,25 +8683,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DIA Plan Regulador Comunal de Linares (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8726,12 +8726,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Linares</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8739,17 +8739,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>20/04/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, Linares (e-seia)</t>
+          <t>DIA Plan Regulador Comunal de Linares (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8779,15 +8779,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ChIlebotanics S.A.</t>
+          <t>Ilustre Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>27/03/2007</t>
+          <t>20/04/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, Linares (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8822,20 +8822,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>ChIlebotanics S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>27/03/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8879,21 +8879,21 @@
         </is>
       </c>
       <c r="F178" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA DE LINARES EMPRESAS HN (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8918,30 +8918,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA DE LINARES EMPRESAS HN (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8966,20 +8966,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8989,7 +8989,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9027,17 +9027,17 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales para Feria Agrícola Linares, VII Región (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9062,30 +9062,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>S.A. Feria de los Agricultores</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>18/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1838428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales para Feria Agrícola Linares, VII Región (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9110,30 +9110,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>S.A. Feria de los Agricultores</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>18/12/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1838428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9163,25 +9163,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9211,25 +9211,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA LINARES (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9254,16 +9254,16 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA LINARES (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9302,30 +9302,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9355,25 +9355,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9403,7 +9403,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -9411,7 +9411,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,25 +9451,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Recolector de Residuos "el Boldo" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9494,20 +9494,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Gonzalo Vicente Cancino Ilufi</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Recolector de Residuos "el Boldo" (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9542,30 +9542,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Gonzalo Vicente Cancino Ilufi</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Oficina de Bodegas Bayer S.A. Linares (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9590,12 +9590,12 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>BAYER S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -9603,17 +9603,17 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Drenaje Purísima Linares (e-seia)</t>
+          <t>Oficina de Bodegas Bayer S.A. Linares (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,15 +9643,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Agricola CALTEX Ltda .</t>
+          <t>BAYER S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>21/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1568008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Drenaje Purísima Linares (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9686,20 +9686,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Agricola CALTEX Ltda .</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>21/08/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1568008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,7 +9739,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -9747,17 +9747,17 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de RILES y aguas servidas, Exportadora Unifrutti Traders Ltda., Planta Linares (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9782,30 +9782,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>16/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1468427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Sistema de tratamiento de RILES y aguas servidas, Exportadora Unifrutti Traders Ltda., Planta Linares (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9830,20 +9830,20 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>16/06/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1468427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,15 +9883,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9939,17 +9939,17 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,25 +9979,25 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,17 +10035,17 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RIles para Vitivinícola Loncomilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10070,20 +10070,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola y Vitivinícola Loncomilla Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>90</v>
+        <v>4000</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Sistema de Tratamiento de RIles para Vitivinícola Loncomilla (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10118,16 +10118,16 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Cooperativa Agrícola y Vitivinícola Loncomilla Limitada</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10136,12 +10136,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>PLANTA RECUPERADORA DE POLIETILENO (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10166,30 +10166,30 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>DO GWAN KIM KIM</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>PLANTA RECUPERADORA DE POLIETILENO (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10214,30 +10214,30 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>DO GWAN KIM KIM</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,40 +10252,40 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Embalse Ancoa</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>55000</v>
+        <v>22</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,26 +10300,26 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse Ancoa</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>72</v>
+        <v>55000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
@@ -10328,12 +10328,12 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Manejo de Riles Bodega San Javier (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10358,30 +10358,30 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>660</v>
+        <v>72</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>19/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1168811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10419,17 +10419,17 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>19/12/2005</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1168811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Manejo de Riles Bodega San Javier (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10454,30 +10454,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>3517</v>
+        <v>660</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10507,15 +10507,15 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10555,15 +10555,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10603,15 +10603,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10651,11 +10651,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10699,11 +10699,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos La Reserva de Caliboro (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10742,20 +10742,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Viña La Reserva de Caliboro S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos La Reserva de Caliboro (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10790,20 +10790,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Viña La Reserva de Caliboro S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10843,15 +10843,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación Servicio APR Vara Gruesa, Linares (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10886,20 +10886,20 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Comité Agua Potable Rural Vara Gruesa</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>785</v>
+        <v>855</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=636656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Mejoramiento y Ampliación Servicio APR Vara Gruesa, Linares (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10934,30 +10934,30 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Comité Agua Potable Rural Vara Gruesa</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>855</v>
+        <v>785</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=636656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10987,15 +10987,15 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11030,30 +11030,30 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11078,20 +11078,20 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11131,15 +11131,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11179,25 +11179,25 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Nueva Ubicación del Colegio Amelia Troncoso (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11222,30 +11222,30 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Jorge Rambaldi Valenzuela y Compañía Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>10/03/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Nueva Ubicación del Colegio Amelia Troncoso (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11270,20 +11270,20 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Jorge Rambaldi Valenzuela y Compañía Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/03/2004</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11293,7 +11293,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11323,15 +11323,15 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Estación de Servicio Av. León Bustos (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11366,20 +11366,20 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>100</v>
+        <v>6600</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Estación de Servicios Brasil-Esperanza (e-seia)</t>
+          <t>Estación de Servicio Av. León Bustos (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11423,7 +11423,7 @@
         </is>
       </c>
       <c r="F231" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Modificación Plan regulador Linares (e-seia)</t>
+          <t>Estación de Servicios Brasil-Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,15 +11467,15 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>21/03/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=62500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11500,12 +11500,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Linares</t>
+          <t>Modificación Plan regulador Linares (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -11515,15 +11515,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>17/10/2002</t>
+          <t>21/03/2003</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=62500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11548,40 +11548,40 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Linares</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>6590</v>
+        <v>9000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>17/10/2002</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Camino a Yerbas Buenas esquina Avda. Circunvalación - Linares</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11606,30 +11606,30 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Petroleos Transandinos SA.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>390</v>
+        <v>6590</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>08/04/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Estación de Servicio YPF Camino a Yerbas Buenas esquina Avda. Circunvalación - Linares</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11654,30 +11654,30 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Petroleos Transandinos SA.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>08/04/2002</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Diseño de Ingeniería de Agua Potable Rural Ballica la Torre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11702,30 +11702,30 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>16/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Linares en Zona Z-4</t>
+          <t>Diseño de Ingeniería de Agua Potable Rural Ballica la Torre</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11755,15 +11755,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>09/05/2001</t>
+          <t>16/05/2001</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11773,7 +11773,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Starco S.A.</t>
+          <t>Modificación Plan Regulador Comunal de Linares en Zona Z-4</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11803,25 +11803,25 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>STARCO S.A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>09/05/2001</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Starco S.A.</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11846,30 +11846,30 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>STARCO S.A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Cementerio Parque Campo Sacro</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11894,20 +11894,20 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Obispado de Linares</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1500</v>
+        <v>110</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>11/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -11917,7 +11917,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de San Antonio Encina</t>
+          <t>Cementerio Parque Campo Sacro</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11947,15 +11947,15 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Obispado de Linares</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>330</v>
+        <v>1500</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>22/11/1999</t>
+          <t>11/02/2000</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural localidad de Guadantún</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de San Antonio Encina</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11999,7 +11999,7 @@
         </is>
       </c>
       <c r="F243" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural localidad de Los Maitenes</t>
+          <t>Construcción Sistema de Agua Potable Rural localidad de Guadantún</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-458 Maitenes</t>
+          <t>Construcción Sistema de Agua Potable Rural localidad de Los Maitenes</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,15 +12091,15 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>23/08/1999</t>
+          <t>22/11/1999</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -12109,7 +12109,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-464 Las Toscas</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-458 Maitenes</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12143,7 +12143,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-482 Vara Gruesa</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-464 Las Toscas</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12191,7 +12191,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-501 Palmilla</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-482 Vara Gruesa</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12239,7 +12239,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Construcción Feria de Animales en la Comuna de Linares</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-501 Palmilla</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12283,25 +12283,25 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Santa Ema S.A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>06/08/1999</t>
+          <t>23/08/1999</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Feria de Animales en la Comuna de Linares</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12326,30 +12326,30 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Sociedad de Inversiones Santa Ema S.A.</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>06/08/1999</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12364,43 +12364,91 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F251" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C252" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr">
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F251" t="n">
+      <c r="F252" t="n">
         <v>850000</v>
       </c>
-      <c r="G251" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
+      <c r="H252" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I251" t="inlineStr">
+      <c r="I252" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J251" t="inlineStr">
+      <c r="J252" t="inlineStr">
         <is>
           <t>Linares</t>
         </is>

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA.</t>
+          <t>Constructora La Rioja SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Agrícola y Comercial Los Queltehues Limitada</t>
+          <t>Pafal Agronegocios Limitada</t>
         </is>
       </c>
       <c r="F18" t="n">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -11371,7 +11371,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F230" t="n">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -775,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3160,26 +3160,26 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,26 +3208,26 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4792,26 +4792,26 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,26 +4840,26 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6199,7 +6199,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Generadora Eléctrica Roblería Limitada.</t>
+          <t>Hidroeléctrica Roblería SpA.</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,16 +6386,16 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -6404,12 +6404,12 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,16 +6434,16 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -6452,12 +6452,12 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J252"/>
+  <dimension ref="A1:J253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conservación y Mantención de ribera río Achibueno</t>
+          <t>Sol de León</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA ARIAL LIMITADA</t>
+          <t>SOL DE LEON SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>101</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>18/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159662937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque del Sol Linares</t>
+          <t>Conservación y Mantención de ribera río Achibueno</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA</t>
+          <t>CONSTRUCTORA ARIAL LIMITADA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>46470</v>
+        <v>101</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154799077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Parque del Sol Linares</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>Constructora La Rioja SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2500</v>
+        <v>46470</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154799077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/07/2021</t>
+          <t>27/08/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>05/07/2021</t>
+          <t>29/07/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fotovolt Linares 2</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AILIN FOTOVOLTAICA SPA</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5040</v>
+        <v>2500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>05/07/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151798438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Solar Paso Cunao</t>
+          <t>Fotovolt Linares 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BLE Asesorías e Inversiones SpA</t>
+          <t>AILIN FOTOVOLTAICA SPA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9450</v>
+        <v>5040</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146645804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151798438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Linar</t>
+          <t>Parque Solar Paso Cunao</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>BLE Asesorías e Inversiones SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>13500</v>
+        <v>9450</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146311300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146645804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Adelma</t>
+          <t>Planta Fotovoltaica Linar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GR Algarrobo SpA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146311300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Linares Norte PMG</t>
+          <t>Planta Fotovoltaica Adelma</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,11 +871,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parque Solar Linares Norte SpA</t>
+          <t>GR Algarrobo SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -884,12 +884,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica GENOVA</t>
+          <t>Parque Fotovoltaico Linares Norte PMG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>GENOVA SOLAR SPA</t>
+          <t>Parque Solar Linares Norte SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>1065</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146007747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Picaflor Azul</t>
+          <t>Nueva Central Solar Fotovoltaica GENOVA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PFV PICAFLOR AZUL SPA</t>
+          <t>GENOVA SOLAR SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146007747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Picaflor Azul</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,12 +1010,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>PFV PICAFLOR AZUL SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque fotovoltaico San Yolando</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Isidora Solar SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145490754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque fotovoltaico San Yolando</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Isidora Solar SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/01/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145490754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Engorda Los Queltehues</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pafal Agronegocios Limitada</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144452935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Catitas</t>
+          <t>Engorda Los Queltehues</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PFV LAS CATITAS SPA</t>
+          <t>Pafal Agronegocios Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12000</v>
+        <v>2400</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>08/11/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144452935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Solar San Antonio</t>
+          <t>Parque Fotovoltaico Las Catitas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cuenca Solar SpA.</t>
+          <t>PFV LAS CATITAS SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142551867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Solar Las Vegas</t>
+          <t>Parque Solar San Antonio</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Valle Solar SpA</t>
+          <t>Cuenca Solar SpA.</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142551867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Pachira</t>
+          <t>Parque Solar Las Vegas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EL NARANJAL SPA</t>
+          <t>Valle Solar SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10780</v>
+        <v>12000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/06/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140780692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
+          <t>Nueva Central Solar Fotovoltaica Pachira</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,11 +1447,11 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EL LIMAHUE SPA</t>
+          <t>EL NARANJAL SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>8400</v>
+        <v>10780</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140781101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140780692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>EL LIMAHUE SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>8400</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/06/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140781101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Pachira</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>EL NARANJAL SPA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10780</v>
+        <v>40</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>25/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139203971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
+          <t>Nueva Central Solar Fotovoltaica Pachira</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,11 +1591,11 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EL LIMAHUE SPA</t>
+          <t>EL NARANJAL SPA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>8400</v>
+        <v>10780</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139204362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139203971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Linares</t>
+          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>LINARES GENERACION SPA</t>
+          <t>EL LIMAHUE SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>12100</v>
+        <v>8400</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>25/05/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139204362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Nueva Central Solar Fotovoltaica Linares</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>LINARES GENERACION SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>42</v>
+        <v>12100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Ciprés</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>12250</v>
+        <v>42</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Granada</t>
+          <t>Proyecto Solar fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Granada SpA</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO HUERTOS DE LINARES</t>
+          <t>Proyecto Solar fotovoltaico Granada</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Granada SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>15085</v>
+        <v>12250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11/07/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132533521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Granada</t>
+          <t>PROYECTO INMOBILIARIO HUERTOS DE LINARES</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Granada SpA</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>12250</v>
+        <v>15085</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/06/2017</t>
+          <t>11/07/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132533521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Ciprés</t>
+          <t>Proyecto Solar fotovoltaico Granada</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>Granada SpA</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Proyecto Solar Fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>12250</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>22/06/2017</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Ciprés</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12250</v>
+        <v>37</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132414045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Solar Fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>37</v>
+        <v>12250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132414045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>EMPRÉSTITO SECTOR SAN VICTOR ÁLAMOS</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Jaime Alejandro Pérez Villagrán</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1300</v>
+        <v>37</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132094198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EMPRÉSTITO SECTOR SAN VÍCTOR ÁLAMOS</t>
+          <t>EMPRÉSTITO SECTOR SAN VICTOR ÁLAMOS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,7 +2215,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Patricio Ernesto Pérez Villagrán</t>
+          <t>Jaime Alejandro Pérez Villagrán</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06/01/2017</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132039740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132094198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Actualización Operacional Planta Frutos del Maipo Linares</t>
+          <t>EMPRÉSTITO SECTOR SAN VÍCTOR ÁLAMOS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Patricio Ernesto Pérez Villagrán</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2934</v>
+        <v>1300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/09/2016</t>
+          <t>06/01/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131745748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132039740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Actualización Operacional Planta Frutos del Maipo Linares</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10000</v>
+        <v>2934</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>08/09/2016</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131745748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COMPLEJO ATLÉTICO LINARES</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Linares</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>8700</v>
+        <v>10000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Complejo Atlético Linares</t>
+          <t>COMPLEJO ATLÉTICO LINARES</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131316766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Complejo Atlético Linares</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Ilustre Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>19/04/2016</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131316766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,11 +2647,11 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DRENAJE SUPERFICIAL SANTA ROSA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FRUTICOLA SABA SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/04/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129398257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07/04/2014</t>
+          <t>21/04/2014</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129371020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129398257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06/02/2014</t>
+          <t>07/04/2014</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129241069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129371020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>DRENAJE SUPERFICIAL SANTA ROSA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>FRUTICOLA SABA SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>06/02/2014</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129241069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,12 +3352,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Chupallar SpA</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>49500</v>
+        <v>140400</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,30 +3448,30 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Eléctrica Chupallar SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>07/10/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sala de vantas y bodega coagra Linares</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>COAGRA S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>400</v>
+        <v>2475</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>14/01/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7726763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Diseño: Mejoramiento y Ampliación Servicio Agua Potable Rural Unión San Víctor Lamas</t>
+          <t>sala de vantas y bodega coagra Linares</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Unión San Víctor Lamas</t>
+          <t>COAGRA S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1580</v>
+        <v>400</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>25/10/2012</t>
+          <t>14/01/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7464751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7726763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
+          <t>Diseño: Mejoramiento y Ampliación Servicio Agua Potable Rural Unión San Víctor Lamas</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Comité de Agua Potable Rural Unión San Víctor Lamas</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>40000</v>
+        <v>1580</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>25/10/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7464751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Achibueno</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>880</v>
+        <v>5000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6773026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA HN LINARES .</t>
+          <t>Extracción de Áridos Río Achibueno</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>880</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>18/04/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6621195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6773026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA HN LINARES .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6621195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,40 +4504,40 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>16500</v>
+        <v>100</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,40 +4552,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>16500</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,30 +4792,30 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>11300</v>
+        <v>1650</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4888,12 +4888,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Construcción de Drenaje superficial en predio Buena Vista</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola San Mariano Limitada</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>48</v>
+        <v>11300</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>02/08/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Construcción de Drenaje superficial en predio Buena Vista</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Agrícola San Mariano Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>02/08/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Explotación empréstito, en sector Chupallar 4.3 há</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1967</v>
+        <v>200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5567469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Explotación empréstito, en sector Chupallar 4.3 há</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>1967</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>02/05/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5567469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Explotación Empréstito en Sector Chupallar, Provincia de Linares</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1967</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto San Ambrosio</t>
+          <t>Ampliación Explotación Empréstito en Sector Chupallar, Provincia de Linares</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>46300</v>
+        <v>1967</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/12/2010</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Proyecto San Ambrosio</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,20 +5234,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>264</v>
+        <v>46300</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>07/12/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>AMPLIACION Y MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE RURAL DE VARA GRUESA</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Vara Gruesa</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/07/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>AMPLIACION Y MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE RURAL DE VARA GRUESA</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Comite de Agua Potable Rural Vara Gruesa</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/07/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,11 +5959,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Drenaje Purissima II . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Agrícola Purissima Limitada</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>12/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4299647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Explotación Empréstito en Sector Chupallar Embalse Ancoa VII Región (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Drenaje Purissima II . (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Agrícola Purissima Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>5825</v>
+        <v>102</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>21/12/2009</t>
+          <t>12/01/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4245401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4299647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SALA DE VENTA Y BODEGA PARA LA COMERCIALIZACION DE INSUMOS Y MAQUINARIA AGRICOLA . (e-seia)</t>
+          <t>Explotación Empréstito en Sector Chupallar Embalse Ancoa VII Región (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Compañía Agropecuaria Copeval S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>274</v>
+        <v>5825</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>21/12/2009</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4245401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>SALA DE VENTA Y BODEGA PARA LA COMERCIALIZACION DE INSUMOS Y MAQUINARIA AGRICOLA . (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Compañía Agropecuaria Copeval S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Generadora Eléctrica Roblería . (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Roblería SpA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>10/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172636&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Generadora Eléctrica Roblería . (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Hidroeléctrica Roblería SpA.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>377</v>
+        <v>4000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/11/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172636&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante Aspersión, en la Planta Deshidratadora de Comercial Chacabuco S.p.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Comercial Chacabuco Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>50</v>
+        <v>377</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4113226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante Aspersión, en la Planta Deshidratadora de Comercial Chacabuco S.p.A. (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Comercial Chacabuco Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>11126</v>
+        <v>50</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>11/09/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4113226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>17</v>
+        <v>11126</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>11/09/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TERMINAL DE BUSES RODOVIARIO SAN AMBROSIO S.A . (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>INMOBILIARIA E INVERSIONES RODOVIARIO SAN AMBROSIO . .</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>240075</v>
+        <v>22</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3764888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+          <t>TERMINAL DE BUSES RODOVIARIO SAN AMBROSIO S.A . (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>INMOBILIARIA E INVERSIONES RODOVIARIO SAN AMBROSIO . .</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>6300</v>
+        <v>240075</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3764888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,10 +6664,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto hidroeléctrico ACHIBUENO</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -6675,15 +6679,15 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>285000</v>
+        <v>6300</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -6693,7 +6697,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6708,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Achibueno</t>
+          <t>Proyecto hidroeléctrico ACHIBUENO</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -6719,7 +6723,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela Limitada</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -6727,7 +6731,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6737,7 +6741,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,40 +6756,36 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Hidroeléctrico Achibueno</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Hidroeléctrica Centinela Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,7 +6815,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6823,17 +6823,17 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6871,17 +6871,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6919,17 +6919,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,11 +7103,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7116,12 +7116,12 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,25 +7295,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,25 +7343,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,15 +7391,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,25 +7439,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7535,25 +7535,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,17 +7591,17 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,15 +7679,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,25 +7727,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,25 +7775,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,10 +7808,14 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -7819,25 +7823,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7852,30 +7856,26 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles Viña J.Bouchon y Cía Ltda. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>J.Bouchon Y Cía Ltda.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2814315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Disposición de Riles al Suelo, Mediante Micro Aspersión en la Bodega de Vinos de Comercial los Batros Ltda. Vinos Los Batros (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles Viña J.Bouchon y Cía Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7915,15 +7915,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Comercial Los Batros Ltda.</t>
+          <t>J.Bouchon Y Cía Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>20/03/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2713892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2814315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Modificación del Sistema de Disposición de Riles al Suelo, Mediante Micro Aspersión en la Bodega de Vinos de Comercial los Batros Ltda. Vinos Los Batros (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7958,12 +7958,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Comercial Los Batros Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>20/03/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2713892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8011,25 +8011,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8059,25 +8059,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,11 +8111,11 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8155,15 +8155,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8203,15 +8203,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PLANTA SEPARADORA DE SOLIDOS Y DISPOSICION DE RILES PARA RIEGO planta separadora de solidos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8246,30 +8246,30 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Moisés Arturo Coloma Cisternas</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>17</v>
+        <v>429</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>26/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2434014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PLANTA SEPARADORA DE SOLIDOS Y DISPOSICION DE RILES PARA RIEGO planta separadora de solidos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8294,30 +8294,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Moisés Arturo Coloma Cisternas</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>26/10/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2434014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8347,25 +8347,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8395,25 +8395,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8443,25 +8443,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8491,25 +8491,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,25 +8539,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8595,7 +8595,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8635,15 +8635,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,25 +8683,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8731,25 +8731,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DIA Plan Regulador Comunal de Linares (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8774,12 +8774,12 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Linares</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8787,17 +8787,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>20/04/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, Linares (e-seia)</t>
+          <t>DIA Plan Regulador Comunal de Linares (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8827,15 +8827,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ChIlebotanics S.A.</t>
+          <t>Ilustre Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>27/03/2007</t>
+          <t>20/04/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, Linares (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8870,20 +8870,20 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>ChIlebotanics S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>27/03/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8927,21 +8927,21 @@
         </is>
       </c>
       <c r="F179" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA DE LINARES EMPRESAS HN (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8966,30 +8966,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA DE LINARES EMPRESAS HN (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9014,20 +9014,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9075,17 +9075,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales para Feria Agrícola Linares, VII Región (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9110,30 +9110,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>S.A. Feria de los Agricultores</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>18/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1838428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales para Feria Agrícola Linares, VII Región (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9158,30 +9158,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>S.A. Feria de los Agricultores</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>18/12/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1838428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9211,25 +9211,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9259,25 +9259,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA LINARES (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9302,16 +9302,16 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA LINARES (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9350,30 +9350,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9403,25 +9403,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,7 +9451,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9469,7 +9469,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,25 +9499,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Recolector de Residuos "el Boldo" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9542,20 +9542,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Gonzalo Vicente Cancino Ilufi</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Recolector de Residuos "el Boldo" (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9590,30 +9590,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Gonzalo Vicente Cancino Ilufi</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Oficina de Bodegas Bayer S.A. Linares (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9638,12 +9638,12 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>BAYER S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9651,17 +9651,17 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Drenaje Purísima Linares (e-seia)</t>
+          <t>Oficina de Bodegas Bayer S.A. Linares (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,15 +9691,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Agricola CALTEX Ltda .</t>
+          <t>BAYER S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>21/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1568008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Drenaje Purísima Linares (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9734,20 +9734,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Agricola CALTEX Ltda .</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>21/08/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1568008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -9795,17 +9795,17 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de RILES y aguas servidas, Exportadora Unifrutti Traders Ltda., Planta Linares (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9830,30 +9830,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>16/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1468427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Sistema de tratamiento de RILES y aguas servidas, Exportadora Unifrutti Traders Ltda., Planta Linares (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9878,20 +9878,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>16/06/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1468427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,15 +9931,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9987,17 +9987,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10027,25 +10027,25 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10083,17 +10083,17 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RIles para Vitivinícola Loncomilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10118,20 +10118,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola y Vitivinícola Loncomilla Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>90</v>
+        <v>4000</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Sistema de Tratamiento de RIles para Vitivinícola Loncomilla (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10166,16 +10166,16 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Cooperativa Agrícola y Vitivinícola Loncomilla Limitada</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
@@ -10184,12 +10184,12 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PLANTA RECUPERADORA DE POLIETILENO (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10214,30 +10214,30 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>DO GWAN KIM KIM</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>PLANTA RECUPERADORA DE POLIETILENO (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10262,30 +10262,30 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>DO GWAN KIM KIM</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,40 +10300,40 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Embalse Ancoa</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>55000</v>
+        <v>22</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,26 +10348,26 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse Ancoa</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>72</v>
+        <v>55000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10376,12 +10376,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Manejo de Riles Bodega San Javier (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10406,30 +10406,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>660</v>
+        <v>72</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>19/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1168811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10467,17 +10467,17 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>19/12/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1168811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Manejo de Riles Bodega San Javier (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10502,30 +10502,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>3517</v>
+        <v>660</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10555,15 +10555,15 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -10573,7 +10573,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10603,15 +10603,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10651,15 +10651,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10699,11 +10699,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10747,11 +10747,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos La Reserva de Caliboro (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10790,20 +10790,20 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Viña La Reserva de Caliboro S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos La Reserva de Caliboro (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10838,20 +10838,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Viña La Reserva de Caliboro S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10891,15 +10891,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación Servicio APR Vara Gruesa, Linares (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10934,20 +10934,20 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Comité Agua Potable Rural Vara Gruesa</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>785</v>
+        <v>855</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10957,7 +10957,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=636656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Mejoramiento y Ampliación Servicio APR Vara Gruesa, Linares (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10982,30 +10982,30 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Comité Agua Potable Rural Vara Gruesa</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>855</v>
+        <v>785</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=636656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11035,15 +11035,15 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11078,30 +11078,30 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11126,20 +11126,20 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11179,15 +11179,15 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11227,25 +11227,25 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Nueva Ubicación del Colegio Amelia Troncoso (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11270,30 +11270,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Jorge Rambaldi Valenzuela y Compañía Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>10/03/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Nueva Ubicación del Colegio Amelia Troncoso (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11318,20 +11318,20 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Jorge Rambaldi Valenzuela y Compañía Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/03/2004</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11371,15 +11371,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Estación de Servicio Av. León Bustos (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11414,20 +11414,20 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>100</v>
+        <v>6600</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Estación de Servicios Brasil-Esperanza (e-seia)</t>
+          <t>Estación de Servicio Av. León Bustos (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="F232" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Modificación Plan regulador Linares (e-seia)</t>
+          <t>Estación de Servicios Brasil-Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11515,15 +11515,15 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>21/03/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=62500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11548,12 +11548,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Linares</t>
+          <t>Modificación Plan regulador Linares (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -11563,15 +11563,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>17/10/2002</t>
+          <t>21/03/2003</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=62500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,40 +11596,40 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Linares</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>6590</v>
+        <v>9000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>17/10/2002</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Camino a Yerbas Buenas esquina Avda. Circunvalación - Linares</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11654,30 +11654,30 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Petroleos Transandinos SA.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>390</v>
+        <v>6590</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>08/04/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Estación de Servicio YPF Camino a Yerbas Buenas esquina Avda. Circunvalación - Linares</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11702,30 +11702,30 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Petroleos Transandinos SA.</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>08/04/2002</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Diseño de Ingeniería de Agua Potable Rural Ballica la Torre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11750,30 +11750,30 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>16/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Linares en Zona Z-4</t>
+          <t>Diseño de Ingeniería de Agua Potable Rural Ballica la Torre</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11803,15 +11803,15 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>09/05/2001</t>
+          <t>16/05/2001</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11821,7 +11821,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Starco S.A.</t>
+          <t>Modificación Plan Regulador Comunal de Linares en Zona Z-4</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11851,25 +11851,25 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>STARCO S.A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>09/05/2001</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Starco S.A.</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11894,30 +11894,30 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>STARCO S.A.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Cementerio Parque Campo Sacro</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,20 +11942,20 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Obispado de Linares</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>1500</v>
+        <v>110</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>11/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de San Antonio Encina</t>
+          <t>Cementerio Parque Campo Sacro</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11995,15 +11995,15 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Obispado de Linares</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>330</v>
+        <v>1500</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>22/11/1999</t>
+          <t>11/02/2000</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12013,7 +12013,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural localidad de Guadantún</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de San Antonio Encina</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural localidad de Los Maitenes</t>
+          <t>Construcción Sistema de Agua Potable Rural localidad de Guadantún</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12095,7 +12095,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-458 Maitenes</t>
+          <t>Construcción Sistema de Agua Potable Rural localidad de Los Maitenes</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12139,15 +12139,15 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>23/08/1999</t>
+          <t>22/11/1999</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -12157,7 +12157,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-464 Las Toscas</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-458 Maitenes</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12191,7 +12191,7 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-482 Vara Gruesa</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-464 Las Toscas</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12239,7 +12239,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-501 Palmilla</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-482 Vara Gruesa</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12287,7 +12287,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Construcción Feria de Animales en la Comuna de Linares</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-501 Palmilla</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12331,25 +12331,25 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Santa Ema S.A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>06/08/1999</t>
+          <t>23/08/1999</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Feria de Animales en la Comuna de Linares</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12374,30 +12374,30 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Sociedad de Inversiones Santa Ema S.A.</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>06/08/1999</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12412,43 +12412,91 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F252" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+      <c r="C253" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr">
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F252" t="n">
+      <c r="F253" t="n">
         <v>850000</v>
       </c>
-      <c r="G252" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
+      <c r="H253" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I252" t="inlineStr">
+      <c r="I253" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J252" t="inlineStr">
+      <c r="J253" t="inlineStr">
         <is>
           <t>Linares</t>
         </is>

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/07/2023</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J253"/>
+  <dimension ref="A1:J254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sol de León</t>
+          <t>Conjunto Habitacional Linares</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOL DE LEON SPA</t>
+          <t>CONSTRUCTORA MALPO SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>50000</v>
+        <v>9715</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/07/2023</t>
+          <t>21/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159662937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159674638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conservación y Mantención de ribera río Achibueno</t>
+          <t>Sol de León</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA ARIAL LIMITADA</t>
+          <t>SOL DE LEON SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>101</v>
+        <v>50000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159662937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque del Sol Linares</t>
+          <t>Conservación y Mantención de ribera río Achibueno</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA</t>
+          <t>CONSTRUCTORA ARIAL LIMITADA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>46470</v>
+        <v>101</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154799077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Parque del Sol Linares</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>Constructora La Rioja SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2500</v>
+        <v>46470</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154799077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29/07/2021</t>
+          <t>27/08/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05/07/2021</t>
+          <t>29/07/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fotovolt Linares 2</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AILIN FOTOVOLTAICA SPA</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5040</v>
+        <v>2500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>05/07/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151798438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Solar Paso Cunao</t>
+          <t>Fotovolt Linares 2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BLE Asesorías e Inversiones SpA</t>
+          <t>AILIN FOTOVOLTAICA SPA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>9450</v>
+        <v>5040</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146645804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151798438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Linar</t>
+          <t>Parque Solar Paso Cunao</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>BLE Asesorías e Inversiones SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>13500</v>
+        <v>9450</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146311300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146645804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Adelma</t>
+          <t>Planta Fotovoltaica Linar</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GR Algarrobo SpA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146311300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Linares Norte PMG</t>
+          <t>Planta Fotovoltaica Adelma</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,11 +919,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parque Solar Linares Norte SpA</t>
+          <t>GR Algarrobo SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica GENOVA</t>
+          <t>Parque Fotovoltaico Linares Norte PMG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GENOVA SOLAR SPA</t>
+          <t>Parque Solar Linares Norte SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>1065</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146007747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Picaflor Azul</t>
+          <t>Nueva Central Solar Fotovoltaica GENOVA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>PFV PICAFLOR AZUL SPA</t>
+          <t>GENOVA SOLAR SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146007747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Picaflor Azul</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>PFV PICAFLOR AZUL SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque fotovoltaico San Yolando</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Isidora Solar SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145490754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque fotovoltaico San Yolando</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Isidora Solar SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/01/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145490754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Engorda Los Queltehues</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pafal Agronegocios Limitada</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144452935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Catitas</t>
+          <t>Engorda Los Queltehues</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>PFV LAS CATITAS SPA</t>
+          <t>Pafal Agronegocios Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12000</v>
+        <v>2400</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>08/11/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144452935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Solar San Antonio</t>
+          <t>Parque Fotovoltaico Las Catitas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cuenca Solar SpA.</t>
+          <t>PFV LAS CATITAS SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142551867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Solar Las Vegas</t>
+          <t>Parque Solar San Antonio</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Valle Solar SpA</t>
+          <t>Cuenca Solar SpA.</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142551867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Pachira</t>
+          <t>Parque Solar Las Vegas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EL NARANJAL SPA</t>
+          <t>Valle Solar SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10780</v>
+        <v>12000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21/06/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140780692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
+          <t>Nueva Central Solar Fotovoltaica Pachira</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,11 +1495,11 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EL LIMAHUE SPA</t>
+          <t>EL NARANJAL SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8400</v>
+        <v>10780</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140781101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140780692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>EL LIMAHUE SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>8400</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/06/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140781101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Pachira</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EL NARANJAL SPA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10780</v>
+        <v>40</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>25/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139203971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
+          <t>Nueva Central Solar Fotovoltaica Pachira</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,11 +1639,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EL LIMAHUE SPA</t>
+          <t>EL NARANJAL SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8400</v>
+        <v>10780</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139204362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139203971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Linares</t>
+          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LINARES GENERACION SPA</t>
+          <t>EL LIMAHUE SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>12100</v>
+        <v>8400</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>25/05/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139204362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Nueva Central Solar Fotovoltaica Linares</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>LINARES GENERACION SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>42</v>
+        <v>12100</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Ciprés</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>12250</v>
+        <v>42</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Granada</t>
+          <t>Proyecto Solar fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Granada SpA</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO HUERTOS DE LINARES</t>
+          <t>Proyecto Solar fotovoltaico Granada</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Granada SpA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>15085</v>
+        <v>12250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>11/07/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132533521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Granada</t>
+          <t>PROYECTO INMOBILIARIO HUERTOS DE LINARES</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Granada SpA</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>12250</v>
+        <v>15085</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22/06/2017</t>
+          <t>11/07/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132533521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Ciprés</t>
+          <t>Proyecto Solar fotovoltaico Granada</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>Granada SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Proyecto Solar Fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>20000</v>
+        <v>12250</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>22/06/2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Ciprés</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>12250</v>
+        <v>37</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132414045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Solar Fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>37</v>
+        <v>12250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132414045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>EMPRÉSTITO SECTOR SAN VICTOR ÁLAMOS</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jaime Alejandro Pérez Villagrán</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1300</v>
+        <v>37</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132094198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EMPRÉSTITO SECTOR SAN VÍCTOR ÁLAMOS</t>
+          <t>EMPRÉSTITO SECTOR SAN VICTOR ÁLAMOS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Patricio Ernesto Pérez Villagrán</t>
+          <t>Jaime Alejandro Pérez Villagrán</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/01/2017</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132039740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132094198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Actualización Operacional Planta Frutos del Maipo Linares</t>
+          <t>EMPRÉSTITO SECTOR SAN VÍCTOR ÁLAMOS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Patricio Ernesto Pérez Villagrán</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2934</v>
+        <v>1300</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08/09/2016</t>
+          <t>06/01/2017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131745748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132039740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Actualización Operacional Planta Frutos del Maipo Linares</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10000</v>
+        <v>2934</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>08/09/2016</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131745748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COMPLEJO ATLÉTICO LINARES</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Linares</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>8700</v>
+        <v>10000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Complejo Atlético Linares</t>
+          <t>COMPLEJO ATLÉTICO LINARES</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131316766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Complejo Atlético Linares</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Ilustre Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>19/04/2016</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131316766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DRENAJE SUPERFICIAL SANTA ROSA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>FRUTICOLA SABA SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21/04/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129398257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>07/04/2014</t>
+          <t>21/04/2014</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129371020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129398257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/02/2014</t>
+          <t>07/04/2014</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129241069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129371020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>DRENAJE SUPERFICIAL SANTA ROSA</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>FRUTICOLA SABA SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>06/02/2014</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129241069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,11 +3319,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,12 +3400,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Chupallar SpA</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>49500</v>
+        <v>140400</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,30 +3496,30 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Eléctrica Chupallar SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>07/10/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3807,7 +3807,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sala de vantas y bodega coagra Linares</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>COAGRA S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>400</v>
+        <v>2475</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>14/01/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7726763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Diseño: Mejoramiento y Ampliación Servicio Agua Potable Rural Unión San Víctor Lamas</t>
+          <t>sala de vantas y bodega coagra Linares</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Unión San Víctor Lamas</t>
+          <t>COAGRA S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1580</v>
+        <v>400</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>25/10/2012</t>
+          <t>14/01/2013</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7464751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7726763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
+          <t>Diseño: Mejoramiento y Ampliación Servicio Agua Potable Rural Unión San Víctor Lamas</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Comité de Agua Potable Rural Unión San Víctor Lamas</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>40000</v>
+        <v>1580</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>25/10/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7464751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Achibueno</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>880</v>
+        <v>5000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6773026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA HN LINARES .</t>
+          <t>Extracción de Áridos Río Achibueno</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>30</v>
+        <v>880</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>18/04/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6621195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6773026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA HN LINARES .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6621195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,40 +4552,40 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>16500</v>
+        <v>100</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,40 +4600,40 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1000</v>
+        <v>16500</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4859,21 +4859,21 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Construcción de Drenaje superficial en predio Buena Vista</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola San Mariano Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/08/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Construcción de Drenaje superficial en predio Buena Vista</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Agrícola San Mariano Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>02/08/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Explotación empréstito, en sector Chupallar 4.3 há</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1967</v>
+        <v>200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5567469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Explotación empréstito, en sector Chupallar 4.3 há</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>1967</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>02/05/2011</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5567469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Explotación Empréstito en Sector Chupallar, Provincia de Linares</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1967</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto San Ambrosio</t>
+          <t>Ampliación Explotación Empréstito en Sector Chupallar, Provincia de Linares</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>46300</v>
+        <v>1967</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/12/2010</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Proyecto San Ambrosio</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,20 +5282,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>264</v>
+        <v>46300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>07/12/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>AMPLIACION Y MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE RURAL DE VARA GRUESA</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Vara Gruesa</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>09/07/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>AMPLIACION Y MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE RURAL DE VARA GRUESA</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Comite de Agua Potable Rural Vara Gruesa</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/07/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,11 +6007,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Drenaje Purissima II . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Agrícola Purissima Limitada</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>12/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4299647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Explotación Empréstito en Sector Chupallar Embalse Ancoa VII Región (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Drenaje Purissima II . (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Agrícola Purissima Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>5825</v>
+        <v>102</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>21/12/2009</t>
+          <t>12/01/2010</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4245401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4299647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SALA DE VENTA Y BODEGA PARA LA COMERCIALIZACION DE INSUMOS Y MAQUINARIA AGRICOLA . (e-seia)</t>
+          <t>Explotación Empréstito en Sector Chupallar Embalse Ancoa VII Región (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Compañía Agropecuaria Copeval S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>274</v>
+        <v>5825</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>21/12/2009</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4245401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>SALA DE VENTA Y BODEGA PARA LA COMERCIALIZACION DE INSUMOS Y MAQUINARIA AGRICOLA . (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Compañía Agropecuaria Copeval S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Generadora Eléctrica Roblería . (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Roblería SpA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>10/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172636&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Generadora Eléctrica Roblería . (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Hidroeléctrica Roblería SpA.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>377</v>
+        <v>4000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/11/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172636&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante Aspersión, en la Planta Deshidratadora de Comercial Chacabuco S.p.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Comercial Chacabuco Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>50</v>
+        <v>377</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4113226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante Aspersión, en la Planta Deshidratadora de Comercial Chacabuco S.p.A. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Comercial Chacabuco Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>11126</v>
+        <v>50</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>11/09/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4113226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>250</v>
+        <v>11126</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>11/09/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TERMINAL DE BUSES RODOVIARIO SAN AMBROSIO S.A . (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>INMOBILIARIA E INVERSIONES RODOVIARIO SAN AMBROSIO . .</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>240075</v>
+        <v>22</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3764888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+          <t>TERMINAL DE BUSES RODOVIARIO SAN AMBROSIO S.A . (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>INMOBILIARIA E INVERSIONES RODOVIARIO SAN AMBROSIO . .</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>6300</v>
+        <v>240075</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3764888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,10 +6712,14 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto hidroeléctrico ACHIBUENO</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr"/>
+          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -6723,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>285000</v>
+        <v>6300</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6741,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6756,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Achibueno</t>
+          <t>Proyecto hidroeléctrico ACHIBUENO</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -6767,7 +6771,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela Limitada</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -6775,7 +6779,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6785,7 +6789,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,40 +6804,36 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Hidroeléctrico Achibueno</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Hidroeléctrica Centinela Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6871,17 +6871,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6919,17 +6919,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6967,17 +6967,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,11 +7151,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7164,12 +7164,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,25 +7295,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,25 +7343,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,25 +7391,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,25 +7487,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,15 +7535,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7583,25 +7583,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,17 +7639,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,15 +7679,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,15 +7727,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,25 +7775,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,25 +7823,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,10 +7856,14 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D157" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -7867,25 +7871,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7900,30 +7904,26 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles Viña J.Bouchon y Cía Ltda. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>J.Bouchon Y Cía Ltda.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2814315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Disposición de Riles al Suelo, Mediante Micro Aspersión en la Bodega de Vinos de Comercial los Batros Ltda. Vinos Los Batros (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles Viña J.Bouchon y Cía Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7963,15 +7963,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Comercial Los Batros Ltda.</t>
+          <t>J.Bouchon Y Cía Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>20/03/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7981,7 +7981,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2713892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2814315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Modificación del Sistema de Disposición de Riles al Suelo, Mediante Micro Aspersión en la Bodega de Vinos de Comercial los Batros Ltda. Vinos Los Batros (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8006,12 +8006,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Comercial Los Batros Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8019,7 +8019,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>20/03/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8029,7 +8029,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2713892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8059,25 +8059,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8107,25 +8107,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,11 +8159,11 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8203,15 +8203,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8251,15 +8251,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PLANTA SEPARADORA DE SOLIDOS Y DISPOSICION DE RILES PARA RIEGO planta separadora de solidos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8294,30 +8294,30 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Moisés Arturo Coloma Cisternas</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>17</v>
+        <v>429</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>26/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2434014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PLANTA SEPARADORA DE SOLIDOS Y DISPOSICION DE RILES PARA RIEGO planta separadora de solidos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8342,30 +8342,30 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Moisés Arturo Coloma Cisternas</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>26/10/2007</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2434014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8395,25 +8395,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8443,25 +8443,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8491,25 +8491,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,25 +8539,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,25 +8587,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,15 +8683,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8701,7 +8701,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8731,25 +8731,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8779,25 +8779,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DIA Plan Regulador Comunal de Linares (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8822,12 +8822,12 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Linares</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8835,17 +8835,17 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>20/04/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, Linares (e-seia)</t>
+          <t>DIA Plan Regulador Comunal de Linares (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8875,15 +8875,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ChIlebotanics S.A.</t>
+          <t>Ilustre Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>27/03/2007</t>
+          <t>20/04/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, Linares (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8918,20 +8918,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>ChIlebotanics S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>27/03/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8975,21 +8975,21 @@
         </is>
       </c>
       <c r="F180" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA DE LINARES EMPRESAS HN (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9014,30 +9014,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA DE LINARES EMPRESAS HN (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9062,20 +9062,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9123,17 +9123,17 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales para Feria Agrícola Linares, VII Región (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9158,30 +9158,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>S.A. Feria de los Agricultores</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>18/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1838428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales para Feria Agrícola Linares, VII Región (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9206,30 +9206,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>S.A. Feria de los Agricultores</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>18/12/2006</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1838428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9259,25 +9259,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9307,25 +9307,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA LINARES (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9350,16 +9350,16 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -9373,7 +9373,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA LINARES (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9398,30 +9398,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,25 +9451,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,7 +9499,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -9507,7 +9507,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9547,25 +9547,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Recolector de Residuos "el Boldo" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9590,20 +9590,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Gonzalo Vicente Cancino Ilufi</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9613,7 +9613,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Recolector de Residuos "el Boldo" (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9638,30 +9638,30 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Gonzalo Vicente Cancino Ilufi</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Oficina de Bodegas Bayer S.A. Linares (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9686,12 +9686,12 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>BAYER S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9699,17 +9699,17 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Drenaje Purísima Linares (e-seia)</t>
+          <t>Oficina de Bodegas Bayer S.A. Linares (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,15 +9739,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Agricola CALTEX Ltda .</t>
+          <t>BAYER S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>21/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1568008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Drenaje Purísima Linares (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9782,20 +9782,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Agricola CALTEX Ltda .</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>21/08/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1568008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9835,7 +9835,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9843,17 +9843,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de RILES y aguas servidas, Exportadora Unifrutti Traders Ltda., Planta Linares (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9878,30 +9878,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>16/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1468427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Sistema de tratamiento de RILES y aguas servidas, Exportadora Unifrutti Traders Ltda., Planta Linares (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9926,20 +9926,20 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>16/06/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1468427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,15 +9979,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10035,17 +10035,17 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10075,25 +10075,25 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10131,17 +10131,17 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RIles para Vitivinícola Loncomilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10166,20 +10166,20 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola y Vitivinícola Loncomilla Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>90</v>
+        <v>4000</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Sistema de Tratamiento de RIles para Vitivinícola Loncomilla (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10214,16 +10214,16 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Cooperativa Agrícola y Vitivinícola Loncomilla Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
@@ -10232,12 +10232,12 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>PLANTA RECUPERADORA DE POLIETILENO (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10262,30 +10262,30 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>DO GWAN KIM KIM</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>PLANTA RECUPERADORA DE POLIETILENO (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10310,30 +10310,30 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>DO GWAN KIM KIM</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,40 +10348,40 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Embalse Ancoa</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>55000</v>
+        <v>22</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,26 +10396,26 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse Ancoa</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>72</v>
+        <v>55000</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10424,12 +10424,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Manejo de Riles Bodega San Javier (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10454,30 +10454,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>660</v>
+        <v>72</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>19/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1168811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10515,17 +10515,17 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>19/12/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1168811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,7 +10540,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Manejo de Riles Bodega San Javier (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -10550,30 +10550,30 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>3517</v>
+        <v>660</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10603,15 +10603,15 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10621,7 +10621,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10651,15 +10651,15 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -10669,7 +10669,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10699,15 +10699,15 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10747,11 +10747,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10795,11 +10795,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos La Reserva de Caliboro (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10838,20 +10838,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Viña La Reserva de Caliboro S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos La Reserva de Caliboro (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10886,20 +10886,20 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Viña La Reserva de Caliboro S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10939,15 +10939,15 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -10957,7 +10957,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación Servicio APR Vara Gruesa, Linares (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10982,20 +10982,20 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Comité Agua Potable Rural Vara Gruesa</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>785</v>
+        <v>855</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=636656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Mejoramiento y Ampliación Servicio APR Vara Gruesa, Linares (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11030,30 +11030,30 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Comité Agua Potable Rural Vara Gruesa</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>855</v>
+        <v>785</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=636656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11083,15 +11083,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11126,30 +11126,30 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11174,20 +11174,20 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11227,15 +11227,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11275,25 +11275,25 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Nueva Ubicación del Colegio Amelia Troncoso (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11318,30 +11318,30 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Jorge Rambaldi Valenzuela y Compañía Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>10/03/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Nueva Ubicación del Colegio Amelia Troncoso (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11366,20 +11366,20 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Jorge Rambaldi Valenzuela y Compañía Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/03/2004</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,15 +11419,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Estación de Servicio Av. León Bustos (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11462,20 +11462,20 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>100</v>
+        <v>6600</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Estación de Servicios Brasil-Esperanza (e-seia)</t>
+          <t>Estación de Servicio Av. León Bustos (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11519,7 +11519,7 @@
         </is>
       </c>
       <c r="F233" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Modificación Plan regulador Linares (e-seia)</t>
+          <t>Estación de Servicios Brasil-Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11563,15 +11563,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>21/03/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=62500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,12 +11596,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Linares</t>
+          <t>Modificación Plan regulador Linares (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -11611,15 +11611,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>17/10/2002</t>
+          <t>21/03/2003</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=62500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11644,40 +11644,40 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Linares</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>6590</v>
+        <v>9000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>17/10/2002</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Camino a Yerbas Buenas esquina Avda. Circunvalación - Linares</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11702,30 +11702,30 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Petroleos Transandinos SA.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>390</v>
+        <v>6590</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>08/04/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Estación de Servicio YPF Camino a Yerbas Buenas esquina Avda. Circunvalación - Linares</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11750,30 +11750,30 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Petroleos Transandinos SA.</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>08/04/2002</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11788,7 +11788,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Diseño de Ingeniería de Agua Potable Rural Ballica la Torre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11798,30 +11798,30 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>16/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Linares en Zona Z-4</t>
+          <t>Diseño de Ingeniería de Agua Potable Rural Ballica la Torre</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11851,15 +11851,15 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>09/05/2001</t>
+          <t>16/05/2001</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Starco S.A.</t>
+          <t>Modificación Plan Regulador Comunal de Linares en Zona Z-4</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11899,25 +11899,25 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>STARCO S.A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>09/05/2001</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Starco S.A.</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,30 +11942,30 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>STARCO S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Cementerio Parque Campo Sacro</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11990,20 +11990,20 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Obispado de Linares</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>1500</v>
+        <v>110</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>11/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12013,7 +12013,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de San Antonio Encina</t>
+          <t>Cementerio Parque Campo Sacro</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,15 +12043,15 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Obispado de Linares</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>330</v>
+        <v>1500</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>22/11/1999</t>
+          <t>11/02/2000</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -12061,7 +12061,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural localidad de Guadantún</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de San Antonio Encina</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12095,7 +12095,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural localidad de Los Maitenes</t>
+          <t>Construcción Sistema de Agua Potable Rural localidad de Guadantún</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12143,7 +12143,7 @@
         </is>
       </c>
       <c r="F246" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-458 Maitenes</t>
+          <t>Construcción Sistema de Agua Potable Rural localidad de Los Maitenes</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12187,15 +12187,15 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>23/08/1999</t>
+          <t>22/11/1999</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-464 Las Toscas</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-458 Maitenes</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12239,7 +12239,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-482 Vara Gruesa</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-464 Las Toscas</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12287,7 +12287,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-501 Palmilla</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-482 Vara Gruesa</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Construcción Feria de Animales en la Comuna de Linares</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-501 Palmilla</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12379,25 +12379,25 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Santa Ema S.A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>06/08/1999</t>
+          <t>23/08/1999</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Feria de Animales en la Comuna de Linares</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12422,30 +12422,30 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Sociedad de Inversiones Santa Ema S.A.</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>06/08/1999</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12460,43 +12460,91 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F253" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+      <c r="C254" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E253" t="inlineStr">
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F253" t="n">
+      <c r="F254" t="n">
         <v>850000</v>
       </c>
-      <c r="G253" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
+      <c r="H254" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I253" t="inlineStr">
+      <c r="I254" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J253" t="inlineStr">
+      <c r="J254" t="inlineStr">
         <is>
           <t>Linares</t>
         </is>

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,26 +3304,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4888,26 +4888,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,26 +4936,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3256,26 +3256,26 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,26 +3304,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4888,26 +4888,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,26 +4936,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3304,26 +3304,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4888,26 +4888,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,26 +4936,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3304,26 +3304,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4888,26 +4888,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,26 +4936,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3304,26 +3304,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4888,26 +4888,26 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,26 +4936,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,16 +6482,16 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -6500,12 +6500,12 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3304,26 +3304,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4936,26 +4936,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,26 +4984,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3304,26 +3304,26 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4936,26 +4936,26 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,26 +4984,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,16 +6530,16 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -6548,12 +6548,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F233" t="n">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3352,26 +3352,26 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,26 +3400,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4984,26 +4984,26 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,26 +5032,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,16 +6578,16 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -6596,12 +6596,12 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J256"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -447,7 +447,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160382766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160405634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación, extracción y procesamiento de áridos Pafal</t>
+          <t>Doña Agustina IV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PAFAL ARIDOS Y HORMIGONES LIMITADA</t>
+          <t>CONSTRUCTORA MALPO SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>101</v>
+        <v>49108</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160047465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160382766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Linares</t>
+          <t>Ampliación, extracción y procesamiento de áridos Pafal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA MALPO SPA</t>
+          <t>PAFAL ARIDOS Y HORMIGONES LIMITADA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9715</v>
+        <v>101</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/07/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159674638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160047465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sol de León</t>
+          <t>Conjunto Habitacional Linares</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SOL DE LEON SPA</t>
+          <t>CONSTRUCTORA MALPO SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50000</v>
+        <v>9715</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159662937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159674638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Conservación y Mantención de ribera río Achibueno</t>
+          <t>Sol de León</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA ARIAL LIMITADA</t>
+          <t>SOL DE LEON SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>101</v>
+        <v>50000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159662937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque del Sol Linares</t>
+          <t>Conservación y Mantención de ribera río Achibueno</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA</t>
+          <t>CONSTRUCTORA ARIAL LIMITADA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>46470</v>
+        <v>101</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154799077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Parque del Sol Linares</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>Constructora La Rioja SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2500</v>
+        <v>46470</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154799077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>29/07/2021</t>
+          <t>27/08/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>05/07/2021</t>
+          <t>29/07/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fotovolt Linares 2</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AILIN FOTOVOLTAICA SPA</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>5040</v>
+        <v>2500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>05/07/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151798438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Solar Paso Cunao</t>
+          <t>Fotovolt Linares 2</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BLE Asesorías e Inversiones SpA</t>
+          <t>AILIN FOTOVOLTAICA SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>9450</v>
+        <v>5040</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146645804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151798438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Linar</t>
+          <t>Parque Solar Paso Cunao</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>BLE Asesorías e Inversiones SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>13500</v>
+        <v>9450</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146311300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146645804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Adelma</t>
+          <t>Planta Fotovoltaica Linar</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GR Algarrobo SpA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146311300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Linares Norte PMG</t>
+          <t>Planta Fotovoltaica Adelma</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Parque Solar Linares Norte SpA</t>
+          <t>GR Algarrobo SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica GENOVA</t>
+          <t>Parque Fotovoltaico Linares Norte PMG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>GENOVA SOLAR SPA</t>
+          <t>Parque Solar Linares Norte SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>1065</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146007747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Picaflor Azul</t>
+          <t>Nueva Central Solar Fotovoltaica GENOVA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>PFV PICAFLOR AZUL SPA</t>
+          <t>GENOVA SOLAR SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146007747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Picaflor Azul</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>PFV PICAFLOR AZUL SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque fotovoltaico San Yolando</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Isidora Solar SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145490754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque fotovoltaico San Yolando</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Isidora Solar SpA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/01/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145490754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Engorda Los Queltehues</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Pafal Agronegocios Limitada</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144452935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Catitas</t>
+          <t>Engorda Los Queltehues</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PFV LAS CATITAS SPA</t>
+          <t>Pafal Agronegocios Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>12000</v>
+        <v>2400</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>08/11/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144452935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Solar San Antonio</t>
+          <t>Parque Fotovoltaico Las Catitas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cuenca Solar SpA.</t>
+          <t>PFV LAS CATITAS SPA</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142551867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Solar Las Vegas</t>
+          <t>Parque Solar San Antonio</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Valle Solar SpA</t>
+          <t>Cuenca Solar SpA.</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142551867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Pachira</t>
+          <t>Parque Solar Las Vegas</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>EL NARANJAL SPA</t>
+          <t>Valle Solar SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10780</v>
+        <v>12000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/06/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140780692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
+          <t>Nueva Central Solar Fotovoltaica Pachira</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,11 +1639,11 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EL LIMAHUE SPA</t>
+          <t>EL NARANJAL SPA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>8400</v>
+        <v>10780</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140781101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140780692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>EL LIMAHUE SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>8400</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/06/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140781101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Pachira</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>EL NARANJAL SPA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10780</v>
+        <v>40</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>25/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139203971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
+          <t>Nueva Central Solar Fotovoltaica Pachira</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,11 +1783,11 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EL LIMAHUE SPA</t>
+          <t>EL NARANJAL SPA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>8400</v>
+        <v>10780</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139204362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139203971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Linares</t>
+          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>LINARES GENERACION SPA</t>
+          <t>EL LIMAHUE SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>12100</v>
+        <v>8400</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>25/05/2018</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139204362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Nueva Central Solar Fotovoltaica Linares</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>LINARES GENERACION SPA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>42</v>
+        <v>12100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Ciprés</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>12250</v>
+        <v>42</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Granada</t>
+          <t>Proyecto Solar fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Granada SpA</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO HUERTOS DE LINARES</t>
+          <t>Proyecto Solar fotovoltaico Granada</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Granada SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>15085</v>
+        <v>12250</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>11/07/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132533521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Granada</t>
+          <t>PROYECTO INMOBILIARIO HUERTOS DE LINARES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Granada SpA</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>12250</v>
+        <v>15085</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/06/2017</t>
+          <t>11/07/2017</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132533521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Ciprés</t>
+          <t>Proyecto Solar fotovoltaico Granada</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>Granada SpA</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Proyecto Solar Fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>20000</v>
+        <v>12250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>22/06/2017</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Ciprés</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>12250</v>
+        <v>37</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132414045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Solar Fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>37</v>
+        <v>12250</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132414045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>EMPRÉSTITO SECTOR SAN VICTOR ÁLAMOS</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jaime Alejandro Pérez Villagrán</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1300</v>
+        <v>37</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132094198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EMPRÉSTITO SECTOR SAN VÍCTOR ÁLAMOS</t>
+          <t>EMPRÉSTITO SECTOR SAN VICTOR ÁLAMOS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Patricio Ernesto Pérez Villagrán</t>
+          <t>Jaime Alejandro Pérez Villagrán</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/01/2017</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132039740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132094198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Actualización Operacional Planta Frutos del Maipo Linares</t>
+          <t>EMPRÉSTITO SECTOR SAN VÍCTOR ÁLAMOS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Patricio Ernesto Pérez Villagrán</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2934</v>
+        <v>1300</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/09/2016</t>
+          <t>06/01/2017</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131745748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132039740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Actualización Operacional Planta Frutos del Maipo Linares</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10000</v>
+        <v>2934</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>08/09/2016</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131745748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COMPLEJO ATLÉTICO LINARES</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Linares</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>8700</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Complejo Atlético Linares</t>
+          <t>COMPLEJO ATLÉTICO LINARES</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131316766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Complejo Atlético Linares</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Ilustre Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>19/04/2016</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131316766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,7 +2799,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DRENAJE SUPERFICIAL SANTA ROSA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FRUTICOLA SABA SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/04/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129398257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>07/04/2014</t>
+          <t>21/04/2014</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129371020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129398257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06/02/2014</t>
+          <t>07/04/2014</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129241069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129371020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,12 +3352,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>DRENAJE SUPERFICIAL SANTA ROSA</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>FRUTICOLA SABA SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>06/02/2014</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129241069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Chupallar SpA</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>49500</v>
+        <v>140400</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,30 +3640,30 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Eléctrica Chupallar SpA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>07/10/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>sala de vantas y bodega coagra Linares</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>COAGRA S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>400</v>
+        <v>2475</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>14/01/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7726763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Diseño: Mejoramiento y Ampliación Servicio Agua Potable Rural Unión San Víctor Lamas</t>
+          <t>sala de vantas y bodega coagra Linares</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Unión San Víctor Lamas</t>
+          <t>COAGRA S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1580</v>
+        <v>400</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>25/10/2012</t>
+          <t>14/01/2013</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7464751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7726763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
+          <t>Diseño: Mejoramiento y Ampliación Servicio Agua Potable Rural Unión San Víctor Lamas</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Comité de Agua Potable Rural Unión San Víctor Lamas</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>40000</v>
+        <v>1580</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>25/10/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7464751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Achibueno</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>880</v>
+        <v>5000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>18/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6773026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA HN LINARES .</t>
+          <t>Extracción de Áridos Río Achibueno</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>30</v>
+        <v>880</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>18/04/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6621195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6773026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA HN LINARES .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,30 +4466,30 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6621195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,40 +4696,40 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>16500</v>
+        <v>100</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,40 +4744,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1000</v>
+        <v>16500</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,30 +4984,30 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>11300</v>
+        <v>1650</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Construcción de Drenaje superficial en predio Buena Vista</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola San Mariano Limitada</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>48</v>
+        <v>11300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/08/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Construcción de Drenaje superficial en predio Buena Vista</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Agrícola San Mariano Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>02/08/2011</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Explotación empréstito, en sector Chupallar 4.3 há</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1967</v>
+        <v>200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5567469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Explotación empréstito, en sector Chupallar 4.3 há</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>1967</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>02/05/2011</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5567469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliación Explotación Empréstito en Sector Chupallar, Provincia de Linares</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1967</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto San Ambrosio</t>
+          <t>Ampliación Explotación Empréstito en Sector Chupallar, Provincia de Linares</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>46300</v>
+        <v>1967</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/12/2010</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Proyecto San Ambrosio</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>264</v>
+        <v>46300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>07/12/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>AMPLIACION Y MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE RURAL DE VARA GRUESA</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Vara Gruesa</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>09/07/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>AMPLIACION Y MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE RURAL DE VARA GRUESA</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Comite de Agua Potable Rural Vara Gruesa</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/07/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6068,12 +6068,12 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,11 +6151,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6164,12 +6164,12 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Drenaje Purissima II . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Agrícola Purissima Limitada</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>12/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4299647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Explotación Empréstito en Sector Chupallar Embalse Ancoa VII Región (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Drenaje Purissima II . (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Agrícola Purissima Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>5825</v>
+        <v>102</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>21/12/2009</t>
+          <t>12/01/2010</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4245401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4299647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SALA DE VENTA Y BODEGA PARA LA COMERCIALIZACION DE INSUMOS Y MAQUINARIA AGRICOLA . (e-seia)</t>
+          <t>Explotación Empréstito en Sector Chupallar Embalse Ancoa VII Región (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Compañía Agropecuaria Copeval S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>274</v>
+        <v>5825</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>21/12/2009</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4245401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>SALA DE VENTA Y BODEGA PARA LA COMERCIALIZACION DE INSUMOS Y MAQUINARIA AGRICOLA . (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Compañía Agropecuaria Copeval S.A.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Generadora Eléctrica Roblería . (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Roblería SpA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172636&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Generadora Eléctrica Roblería . (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Hidroeléctrica Roblería SpA.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>377</v>
+        <v>4000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/11/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172636&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante Aspersión, en la Planta Deshidratadora de Comercial Chacabuco S.p.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Comercial Chacabuco Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>50</v>
+        <v>377</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4113226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante Aspersión, en la Planta Deshidratadora de Comercial Chacabuco S.p.A. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Comercial Chacabuco Limitada</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>11126</v>
+        <v>50</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>11/09/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4113226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>17</v>
+        <v>11126</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>11/09/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TERMINAL DE BUSES RODOVIARIO SAN AMBROSIO S.A . (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>INMOBILIARIA E INVERSIONES RODOVIARIO SAN AMBROSIO . .</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>240075</v>
+        <v>22</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3764888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+          <t>TERMINAL DE BUSES RODOVIARIO SAN AMBROSIO S.A . (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>INMOBILIARIA E INVERSIONES RODOVIARIO SAN AMBROSIO . .</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>6300</v>
+        <v>240075</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3764888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,10 +6856,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Proyecto hidroeléctrico ACHIBUENO</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr"/>
+          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -6867,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>285000</v>
+        <v>6300</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6885,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6900,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Achibueno</t>
+          <t>Proyecto hidroeléctrico ACHIBUENO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -6911,7 +6915,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela Limitada</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6919,7 +6923,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6929,7 +6933,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,40 +6948,36 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Hidroeléctrico Achibueno</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Hidroeléctrica Centinela Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7015,17 +7015,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7063,17 +7063,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -7111,17 +7111,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,11 +7295,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -7308,12 +7308,12 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,25 +7343,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,25 +7391,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,25 +7439,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,25 +7487,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,25 +7535,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,25 +7631,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,15 +7679,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7727,25 +7727,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,17 +7783,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,15 +7823,15 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7841,7 +7841,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,25 +7919,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,25 +7967,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,10 +8000,14 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -8011,25 +8015,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8044,30 +8048,26 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles Viña J.Bouchon y Cía Ltda. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>J.Bouchon Y Cía Ltda.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2814315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Disposición de Riles al Suelo, Mediante Micro Aspersión en la Bodega de Vinos de Comercial los Batros Ltda. Vinos Los Batros (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles Viña J.Bouchon y Cía Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8107,15 +8107,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Comercial Los Batros Ltda.</t>
+          <t>J.Bouchon Y Cía Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>20/03/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2713892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2814315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Modificación del Sistema de Disposición de Riles al Suelo, Mediante Micro Aspersión en la Bodega de Vinos de Comercial los Batros Ltda. Vinos Los Batros (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8150,12 +8150,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Comercial Los Batros Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>20/03/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2713892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8203,25 +8203,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8251,25 +8251,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,11 +8303,11 @@
         </is>
       </c>
       <c r="F166" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8317,7 +8317,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8347,15 +8347,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8395,15 +8395,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>PLANTA SEPARADORA DE SOLIDOS Y DISPOSICION DE RILES PARA RIEGO planta separadora de solidos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8438,30 +8438,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Moisés Arturo Coloma Cisternas</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>17</v>
+        <v>429</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>26/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2434014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PLANTA SEPARADORA DE SOLIDOS Y DISPOSICION DE RILES PARA RIEGO planta separadora de solidos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8486,30 +8486,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Moisés Arturo Coloma Cisternas</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>26/10/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2434014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8539,25 +8539,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,25 +8587,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8635,25 +8635,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,25 +8683,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8731,25 +8731,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8827,15 +8827,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8875,25 +8875,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8923,25 +8923,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DIA Plan Regulador Comunal de Linares (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8966,12 +8966,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Linares</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -8979,17 +8979,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>20/04/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, Linares (e-seia)</t>
+          <t>DIA Plan Regulador Comunal de Linares (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9019,15 +9019,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ChIlebotanics S.A.</t>
+          <t>Ilustre Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>27/03/2007</t>
+          <t>20/04/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9037,7 +9037,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, Linares (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9062,20 +9062,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>ChIlebotanics S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>27/03/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9119,21 +9119,21 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA DE LINARES EMPRESAS HN (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9158,30 +9158,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA DE LINARES EMPRESAS HN (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9206,20 +9206,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9229,7 +9229,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9267,17 +9267,17 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales para Feria Agrícola Linares, VII Región (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9302,30 +9302,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>S.A. Feria de los Agricultores</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>18/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1838428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales para Feria Agrícola Linares, VII Región (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9350,30 +9350,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>S.A. Feria de los Agricultores</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>18/12/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1838428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9403,25 +9403,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,25 +9451,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA LINARES (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9494,16 +9494,16 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA LINARES (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9542,30 +9542,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9595,25 +9595,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,25 +9691,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Recolector de Residuos "el Boldo" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9734,20 +9734,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Gonzalo Vicente Cancino Ilufi</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Recolector de Residuos "el Boldo" (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9782,30 +9782,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Gonzalo Vicente Cancino Ilufi</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Oficina de Bodegas Bayer S.A. Linares (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>BAYER S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -9843,17 +9843,17 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Drenaje Purísima Linares (e-seia)</t>
+          <t>Oficina de Bodegas Bayer S.A. Linares (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9883,15 +9883,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Agricola CALTEX Ltda .</t>
+          <t>BAYER S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>21/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1568008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Drenaje Purísima Linares (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9926,20 +9926,20 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Agricola CALTEX Ltda .</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>21/08/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1568008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9979,7 +9979,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -9987,17 +9987,17 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de RILES y aguas servidas, Exportadora Unifrutti Traders Ltda., Planta Linares (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10022,30 +10022,30 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>16/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1468427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Sistema de tratamiento de RILES y aguas servidas, Exportadora Unifrutti Traders Ltda., Planta Linares (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10070,20 +10070,20 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>16/06/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1468427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10123,15 +10123,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10179,17 +10179,17 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10219,25 +10219,25 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F206" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10275,17 +10275,17 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RIles para Vitivinícola Loncomilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10310,20 +10310,20 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola y Vitivinícola Loncomilla Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>90</v>
+        <v>4000</v>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Sistema de Tratamiento de RIles para Vitivinícola Loncomilla (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10358,16 +10358,16 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Cooperativa Agrícola y Vitivinícola Loncomilla Limitada</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
@@ -10376,12 +10376,12 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PLANTA RECUPERADORA DE POLIETILENO (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10406,30 +10406,30 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>DO GWAN KIM KIM</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>PLANTA RECUPERADORA DE POLIETILENO (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10454,30 +10454,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>DO GWAN KIM KIM</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,40 +10492,40 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Embalse Ancoa</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>55000</v>
+        <v>22</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,26 +10540,26 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse Ancoa</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>72</v>
+        <v>55000</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
@@ -10568,12 +10568,12 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Manejo de Riles Bodega San Javier (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -10598,30 +10598,30 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>660</v>
+        <v>72</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>19/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1168811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10659,17 +10659,17 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>19/12/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1168811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10684,7 +10684,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Manejo de Riles Bodega San Javier (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10694,30 +10694,30 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>3517</v>
+        <v>660</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10747,15 +10747,15 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10795,15 +10795,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10843,15 +10843,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10891,11 +10891,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10909,7 +10909,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10924,7 +10924,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10939,11 +10939,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos La Reserva de Caliboro (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10982,20 +10982,20 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Viña La Reserva de Caliboro S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos La Reserva de Caliboro (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11030,20 +11030,20 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Viña La Reserva de Caliboro S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11083,15 +11083,15 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación Servicio APR Vara Gruesa, Linares (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11126,20 +11126,20 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Comité Agua Potable Rural Vara Gruesa</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>785</v>
+        <v>855</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=636656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Mejoramiento y Ampliación Servicio APR Vara Gruesa, Linares (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11174,30 +11174,30 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Comité Agua Potable Rural Vara Gruesa</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>855</v>
+        <v>785</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=636656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11227,15 +11227,15 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -11245,7 +11245,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11270,30 +11270,30 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11318,20 +11318,20 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -11341,7 +11341,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11371,15 +11371,15 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,25 +11419,25 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Nueva Ubicación del Colegio Amelia Troncoso (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11462,30 +11462,30 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Jorge Rambaldi Valenzuela y Compañía Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>10/03/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Nueva Ubicación del Colegio Amelia Troncoso (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11510,20 +11510,20 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Jorge Rambaldi Valenzuela y Compañía Limitada</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/03/2004</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -11533,7 +11533,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11563,15 +11563,15 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Estación de Servicio Av. León Bustos (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11606,20 +11606,20 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>100</v>
+        <v>6600</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Estación de Servicios Brasil-Esperanza (e-seia)</t>
+          <t>Estación de Servicio Av. León Bustos (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11663,7 +11663,7 @@
         </is>
       </c>
       <c r="F236" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Modificación Plan regulador Linares (e-seia)</t>
+          <t>Estación de Servicios Brasil-Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11707,15 +11707,15 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>21/03/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -11725,7 +11725,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=62500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11740,12 +11740,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Linares</t>
+          <t>Modificación Plan regulador Linares (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -11755,15 +11755,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>17/10/2002</t>
+          <t>21/03/2003</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11773,7 +11773,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=62500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11788,40 +11788,40 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Linares</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>6590</v>
+        <v>9000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>17/10/2002</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Camino a Yerbas Buenas esquina Avda. Circunvalación - Linares</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11846,30 +11846,30 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Petroleos Transandinos SA.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>390</v>
+        <v>6590</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>08/04/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Estación de Servicio YPF Camino a Yerbas Buenas esquina Avda. Circunvalación - Linares</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11894,30 +11894,30 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Petroleos Transandinos SA.</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>08/04/2002</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Diseño de Ingeniería de Agua Potable Rural Ballica la Torre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,30 +11942,30 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>16/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Linares en Zona Z-4</t>
+          <t>Diseño de Ingeniería de Agua Potable Rural Ballica la Torre</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11995,15 +11995,15 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>09/05/2001</t>
+          <t>16/05/2001</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -12013,7 +12013,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Starco S.A.</t>
+          <t>Modificación Plan Regulador Comunal de Linares en Zona Z-4</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,25 +12043,25 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>STARCO S.A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>09/05/2001</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Starco S.A.</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12086,30 +12086,30 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>STARCO S.A.</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Cementerio Parque Campo Sacro</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12134,20 +12134,20 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Obispado de Linares</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>1500</v>
+        <v>110</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>11/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -12157,7 +12157,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de San Antonio Encina</t>
+          <t>Cementerio Parque Campo Sacro</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12187,15 +12187,15 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Obispado de Linares</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>330</v>
+        <v>1500</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>22/11/1999</t>
+          <t>11/02/2000</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural localidad de Guadantún</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de San Antonio Encina</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12239,7 +12239,7 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
@@ -12253,7 +12253,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural localidad de Los Maitenes</t>
+          <t>Construcción Sistema de Agua Potable Rural localidad de Guadantún</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12287,7 +12287,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-458 Maitenes</t>
+          <t>Construcción Sistema de Agua Potable Rural localidad de Los Maitenes</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12331,15 +12331,15 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>23/08/1999</t>
+          <t>22/11/1999</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-464 Las Toscas</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-458 Maitenes</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12383,7 +12383,7 @@
         </is>
       </c>
       <c r="F251" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-482 Vara Gruesa</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-464 Las Toscas</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12431,7 +12431,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-501 Palmilla</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-482 Vara Gruesa</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12479,7 +12479,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Construcción Feria de Animales en la Comuna de Linares</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-501 Palmilla</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12523,25 +12523,25 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Santa Ema S.A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F254" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>06/08/1999</t>
+          <t>23/08/1999</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Feria de Animales en la Comuna de Linares</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12566,30 +12566,30 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Sociedad de Inversiones Santa Ema S.A.</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>06/08/1999</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12604,43 +12604,91 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F256" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+      <c r="C257" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr">
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F256" t="n">
+      <c r="F257" t="n">
         <v>850000</v>
       </c>
-      <c r="G256" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
+      <c r="H257" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I256" t="inlineStr">
+      <c r="I257" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J256" t="inlineStr">
+      <c r="J257" t="inlineStr">
         <is>
           <t>Linares</t>
         </is>

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3400,26 +3400,26 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -5032,26 +5032,26 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,26 +5080,26 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,16 +6626,16 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6644,12 +6644,12 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J257"/>
+  <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>02/11/2023</t>
+          <t>09/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160405634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160435258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -482,7 +482,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31/10/2023</t>
+          <t>02/11/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160382766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160405634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación, extracción y procesamiento de áridos Pafal</t>
+          <t>Doña Agustina IV</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PAFAL ARIDOS Y HORMIGONES LIMITADA</t>
+          <t>CONSTRUCTORA MALPO SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>101</v>
+        <v>49108</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160047465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160382766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Linares</t>
+          <t>Ampliación, extracción y procesamiento de áridos Pafal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA MALPO SPA</t>
+          <t>PAFAL ARIDOS Y HORMIGONES LIMITADA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9715</v>
+        <v>101</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/07/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159674638&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160047465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sol de León</t>
+          <t>Conjunto Habitacional Linares</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SOL DE LEON SPA</t>
+          <t>CONSTRUCTORA MALPO SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>50000</v>
+        <v>9715</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20/07/2023</t>
+          <t>24/07/2023</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159662937&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159674638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Conservación y Mantención de ribera río Achibueno</t>
+          <t>Sol de León</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CONSTRUCTORA ARIAL LIMITADA</t>
+          <t>SOL DE LEON SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>101</v>
+        <v>50000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>20/07/2023</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159662937&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque del Sol Linares</t>
+          <t>Conservación y Mantención de ribera río Achibueno</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Constructora La Rioja SpA</t>
+          <t>CONSTRUCTORA ARIAL LIMITADA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>46470</v>
+        <v>101</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/01/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154799077&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155182346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
+          <t>Parque del Sol Linares</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>Constructora La Rioja SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2500</v>
+        <v>46470</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>27/08/2021</t>
+          <t>24/01/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154799077&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>29/07/2021</t>
+          <t>27/08/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152951438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05/07/2021</t>
+          <t>29/07/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152568643&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fotovolt Linares 2</t>
+          <t>Extracción y Procesamiento de Áridos, Río Achibueno, Sector Los Maitenes</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AILIN FOTOVOLTAICA SPA</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5040</v>
+        <v>2500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/05/2021</t>
+          <t>05/07/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151798438&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152243881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Solar Paso Cunao</t>
+          <t>Fotovolt Linares 2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BLE Asesorías e Inversiones SpA</t>
+          <t>AILIN FOTOVOLTAICA SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>9450</v>
+        <v>5040</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>19/05/2020</t>
+          <t>20/05/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146645804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151798438&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Linar</t>
+          <t>Parque Solar Paso Cunao</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GR Quelat SpA</t>
+          <t>BLE Asesorías e Inversiones SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>13500</v>
+        <v>9450</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/04/2020</t>
+          <t>19/05/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146311300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146645804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica Adelma</t>
+          <t>Planta Fotovoltaica Linar</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>GR Algarrobo SpA</t>
+          <t>GR Quelat SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>13500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21/04/2020</t>
+          <t>22/04/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146311300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Linares Norte PMG</t>
+          <t>Planta Fotovoltaica Adelma</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Parque Solar Linares Norte SpA</t>
+          <t>GR Algarrobo SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1065</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1124,12 +1124,12 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146340670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica GENOVA</t>
+          <t>Parque Fotovoltaico Linares Norte PMG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GENOVA SOLAR SPA</t>
+          <t>Parque Solar Linares Norte SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>1065</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>21/04/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146007747&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Picaflor Azul</t>
+          <t>Nueva Central Solar Fotovoltaica GENOVA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>PFV PICAFLOR AZUL SPA</t>
+          <t>GENOVA SOLAR SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4000</v>
+        <v>10</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146007747&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Picaflor Azul</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>PFV PICAFLOR AZUL SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque fotovoltaico San Yolando</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Isidora Solar SpA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145490754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Parque fotovoltaico San Yolando</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Isidora Solar SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>22/01/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145490754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Engorda Los Queltehues</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Pafal Agronegocios Limitada</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/11/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144452935&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Las Catitas</t>
+          <t>Engorda Los Queltehues</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>PFV LAS CATITAS SPA</t>
+          <t>Pafal Agronegocios Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>12000</v>
+        <v>2400</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/09/2019</t>
+          <t>08/11/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144452935&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Solar San Antonio</t>
+          <t>Parque Fotovoltaico Las Catitas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cuenca Solar SpA.</t>
+          <t>PFV LAS CATITAS SPA</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>23/09/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142551867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144269680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Solar Las Vegas</t>
+          <t>Parque Solar San Antonio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Valle Solar SpA</t>
+          <t>Cuenca Solar SpA.</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/01/2019</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142551867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Pachira</t>
+          <t>Parque Solar Las Vegas</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>EL NARANJAL SPA</t>
+          <t>Valle Solar SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10780</v>
+        <v>12000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/06/2018</t>
+          <t>22/01/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140780692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142352327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
+          <t>Nueva Central Solar Fotovoltaica Pachira</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>EL LIMAHUE SPA</t>
+          <t>EL NARANJAL SPA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>8400</v>
+        <v>10780</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140781101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140780692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>EL LIMAHUE SPA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>8400</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>21/06/2018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140781101&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Pachira</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>EL NARANJAL SPA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>10780</v>
+        <v>40</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>25/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139203971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
+          <t>Nueva Central Solar Fotovoltaica Pachira</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,11 +1831,11 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>EL LIMAHUE SPA</t>
+          <t>EL NARANJAL SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>8400</v>
+        <v>10780</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139204362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139203971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nueva Central Solar Fotovoltaica Linares</t>
+          <t>Nueva Central Solar Fotovoltaica El Rosal</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LINARES GENERACION SPA</t>
+          <t>EL LIMAHUE SPA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>12100</v>
+        <v>8400</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>19/03/2018</t>
+          <t>25/05/2018</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139204362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Nueva Central Solar Fotovoltaica Linares</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>LINARES GENERACION SPA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>42</v>
+        <v>12100</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>19/03/2018</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138747466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Ciprés</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>12250</v>
+        <v>42</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Granada</t>
+          <t>Proyecto Solar fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Granada SpA</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564694&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROYECTO INMOBILIARIO HUERTOS DE LINARES</t>
+          <t>Proyecto Solar fotovoltaico Granada</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Galilea de Ingeniería y Construcción</t>
+          <t>Granada SpA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>15085</v>
+        <v>12250</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>11/07/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132533521&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132564694&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Proyecto Solar fotovoltaico Granada</t>
+          <t>PROYECTO INMOBILIARIO HUERTOS DE LINARES</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Granada SpA</t>
+          <t>Galilea de Ingeniería y Construcción</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>12250</v>
+        <v>15085</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/06/2017</t>
+          <t>11/07/2017</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132533521&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Ciprés</t>
+          <t>Proyecto Solar fotovoltaico Granada</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>Granada SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485506&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Proyecto Solar Fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>20000</v>
+        <v>12250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>22/06/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132485506&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto Solar Fotovoltaico Ciprés</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cipres SpA</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>12250</v>
+        <v>37</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132414045&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Proyecto Solar Fotovoltaico Ciprés</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,20 +2354,20 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Cipres SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>37</v>
+        <v>12250</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>22/05/2017</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132414045&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EMPRÉSTITO SECTOR SAN VICTOR ÁLAMOS</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jaime Alejandro Pérez Villagrán</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1300</v>
+        <v>37</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132094198&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EMPRÉSTITO SECTOR SAN VÍCTOR ÁLAMOS</t>
+          <t>EMPRÉSTITO SECTOR SAN VICTOR ÁLAMOS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Patricio Ernesto Pérez Villagrán</t>
+          <t>Jaime Alejandro Pérez Villagrán</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06/01/2017</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132039740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132094198&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Actualización Operacional Planta Frutos del Maipo Linares</t>
+          <t>EMPRÉSTITO SECTOR SAN VÍCTOR ÁLAMOS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Patricio Ernesto Pérez Villagrán</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2934</v>
+        <v>1300</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/09/2016</t>
+          <t>06/01/2017</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131745748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132039740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Actualización Operacional Planta Frutos del Maipo Linares</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10000</v>
+        <v>2934</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>08/09/2016</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131745748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COMPLEJO ATLÉTICO LINARES</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Linares</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>8700</v>
+        <v>10000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>23/05/2016</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Complejo Atlético Linares</t>
+          <t>COMPLEJO ATLÉTICO LINARES</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>19/04/2016</t>
+          <t>23/05/2016</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131316766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131366755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Complejo Atlético Linares</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Ilustre Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>8700</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>19/04/2016</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131316766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>17000</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DRENAJE SUPERFICIAL SANTA ROSA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>FRUTICOLA SABA SpA</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21/04/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129398257&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>07/04/2014</t>
+          <t>21/04/2014</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129371020&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129398257&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/02/2014</t>
+          <t>07/04/2014</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129241069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129371020&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,12 +3400,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>DRENAJE SUPERFICIAL SANTA ROSA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>FRUTICOLA SABA SpA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>50000</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>06/02/2014</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129241069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3496,26 +3496,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,12 +3592,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Chupallar SpA</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>49500</v>
+        <v>140400</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>07/10/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,30 +3688,30 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>Central Hidroeléctrica Chupallar, Obras de Generación y Transmisión</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Empresa Eléctrica Chupallar SpA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>49500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>07/10/2013</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128579928&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sala de vantas y bodega coagra Linares</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>COAGRA S.A.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>400</v>
+        <v>2475</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>14/01/2013</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7726763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Diseño: Mejoramiento y Ampliación Servicio Agua Potable Rural Unión San Víctor Lamas</t>
+          <t>sala de vantas y bodega coagra Linares</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Comité de Agua Potable Rural Unión San Víctor Lamas</t>
+          <t>COAGRA S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1580</v>
+        <v>400</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>25/10/2012</t>
+          <t>14/01/2013</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7464751&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7726763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
+          <t>Diseño: Mejoramiento y Ampliación Servicio Agua Potable Rural Unión San Víctor Lamas</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Comité de Agua Potable Rural Unión San Víctor Lamas</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>40000</v>
+        <v>1580</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>23/08/2012</t>
+          <t>25/10/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7464751&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Modificaciones al Proyecto Línea de Alta Tensión 2x220 kV San Fabián - Ancoa .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>15000</v>
+        <v>40000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>23/08/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7255722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Achibueno</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Fernando Eugenio Vega Godoy</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>880</v>
+        <v>5000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6773026&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA HN LINARES .</t>
+          <t>Extracción de Áridos Río Achibueno</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Fernando Eugenio Vega Godoy</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>30</v>
+        <v>880</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>02/04/2012</t>
+          <t>18/04/2012</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6621195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6773026&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA HN LINARES .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,30 +4514,30 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>02/04/2012</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6621195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,40 +4744,40 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>16500</v>
+        <v>100</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>24/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,40 +4792,40 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Línea de Transmisión 1x220 KV Centinela - Panimávida</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1000</v>
+        <v>16500</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>24/11/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6231544&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,30 +5032,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>11300</v>
+        <v>1650</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Construcción de Drenaje superficial en predio Buena Vista</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Agrícola San Mariano Limitada</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>48</v>
+        <v>11300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/08/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>Construcción de Drenaje superficial en predio Buena Vista</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad Agrícola San Mariano Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>02/08/2011</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Explotación empréstito, en sector Chupallar 4.3 há</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5234,30 +5234,30 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1967</v>
+        <v>200</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/05/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5567469&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>Explotación empréstito, en sector Chupallar 4.3 há</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>1967</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>02/05/2011</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5567469&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ampliación Explotación Empréstito en Sector Chupallar, Provincia de Linares</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1967</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>03/03/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399017&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto San Ambrosio</t>
+          <t>Ampliación Explotación Empréstito en Sector Chupallar, Provincia de Linares</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>46300</v>
+        <v>1967</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/12/2010</t>
+          <t>03/03/2011</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5399017&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Proyecto San Ambrosio</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>264</v>
+        <v>46300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>07/12/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5133423&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AMPLIACION Y MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE RURAL DE VARA GRUESA</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5570,30 +5570,30 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Comite de Agua Potable Rural Vara Gruesa</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>440</v>
+        <v>264</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>09/07/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>AMPLIACION Y MEJORAMIENTO DEL SISTEMA DE AGUA POTABLE RURAL DE VARA GRUESA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5618,30 +5618,30 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Comite de Agua Potable Rural Vara Gruesa</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>300</v>
+        <v>440</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>09/07/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4698523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6116,12 +6116,12 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,11 +6199,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6212,12 +6212,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Declaración de Impacto Ambiental Drenaje Purissima II . (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Agrícola Purissima Limitada</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>12/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4299647&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Explotación Empréstito en Sector Chupallar Embalse Ancoa VII Región (e-seia)</t>
+          <t>Declaración de Impacto Ambiental Drenaje Purissima II . (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Agrícola Purissima Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>5825</v>
+        <v>102</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>21/12/2009</t>
+          <t>12/01/2010</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4245401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4299647&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SALA DE VENTA Y BODEGA PARA LA COMERCIALIZACION DE INSUMOS Y MAQUINARIA AGRICOLA . (e-seia)</t>
+          <t>Explotación Empréstito en Sector Chupallar Embalse Ancoa VII Región (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Compañía Agropecuaria Copeval S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>274</v>
+        <v>5825</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/12/2009</t>
+          <t>21/12/2009</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4245401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>SALA DE VENTA Y BODEGA PARA LA COMERCIALIZACION DE INSUMOS Y MAQUINARIA AGRICOLA . (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Compañía Agropecuaria Copeval S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>18/12/2009</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4186901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Generadora Eléctrica Roblería . (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Roblería SpA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>10/11/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172636&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Generadora Eléctrica Roblería . (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Hidroeléctrica Roblería SpA.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>377</v>
+        <v>4000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>10/11/2009</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4172636&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento para disponer Riles al suelo mediante Aspersión, en la Planta Deshidratadora de Comercial Chacabuco S.p.A. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Comercial Chacabuco Limitada</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>50</v>
+        <v>377</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>20/10/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4113226&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
+          <t>Sistema de Tratamiento para disponer Riles al suelo mediante Aspersión, en la Planta Deshidratadora de Comercial Chacabuco S.p.A. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Comercial Chacabuco Limitada</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>11126</v>
+        <v>50</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>11/09/2009</t>
+          <t>20/10/2009</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4113226&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Modificación de Trazado Variante Ruta L-39. Sector Embalse Ancoa, Linares. (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>17</v>
+        <v>11126</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>11/09/2009</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4036404&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TERMINAL DE BUSES RODOVIARIO SAN AMBROSIO S.A . (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>INMOBILIARIA E INVERSIONES RODOVIARIO SAN AMBROSIO . .</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>240075</v>
+        <v>22</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>11/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3764888&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+          <t>TERMINAL DE BUSES RODOVIARIO SAN AMBROSIO S.A . (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
+          <t>INMOBILIARIA E INVERSIONES RODOVIARIO SAN AMBROSIO . .</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>6300</v>
+        <v>240075</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>11/05/2009</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3764888&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,10 +6904,14 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Proyecto hidroeléctrico ACHIBUENO</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>Plan Regional de Manejo de Residuos Sólidos Orgánicos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr">
         <is>
           <t>Séptima</t>
@@ -6915,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela S.A</t>
+          <t>Empresa de Servicios Sanitarios del Bio Bio S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>285000</v>
+        <v>6300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>24/03/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6933,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3751112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6948,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Proyecto Hidroeléctrico Achibueno</t>
+          <t>Proyecto hidroeléctrico ACHIBUENO</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -6959,7 +6963,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Hidroeléctrica Centinela Limitada</t>
+          <t>Hidroeléctrica Centinela S.A</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6967,7 +6971,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>18/03/2009</t>
+          <t>24/03/2009</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6977,7 +6981,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3641858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,40 +6996,36 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Proyecto Hidroeléctrico Achibueno</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Hidroeléctrica Centinela Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>285000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>18/03/2009</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3633835&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7063,17 +7063,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7111,17 +7111,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -7159,17 +7159,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,25 +7295,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,11 +7343,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,25 +7391,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,25 +7439,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,25 +7487,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,25 +7535,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,25 +7583,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,15 +7631,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,25 +7679,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,15 +7727,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7775,25 +7775,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,17 +7831,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,15 +7871,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7889,7 +7889,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,15 +7919,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,25 +7967,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>200</v>
+        <v>1650</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,25 +8015,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,10 +8048,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>Interregional</t>
@@ -8059,25 +8063,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Sistema de Trasmisión del Centro S.A</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>40000</v>
+        <v>20</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>10/04/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8092,30 +8096,26 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Modificación Sistema de Tratamiento de Riles Viña J.Bouchon y Cía Ltda. (e-seia)</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>LINEA ALTA TENSION 2x220 kV SAN FABIAN - ANCOA Y OBRAS ASOCIADAS</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>J.Bouchon Y Cía Ltda.</t>
+          <t>Sistema de Trasmisión del Centro S.A</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>40000</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>01/04/2008</t>
+          <t>10/04/2008</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2814315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2837071&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modificación del Sistema de Disposición de Riles al Suelo, Mediante Micro Aspersión en la Bodega de Vinos de Comercial los Batros Ltda. Vinos Los Batros (e-seia)</t>
+          <t>Modificación Sistema de Tratamiento de Riles Viña J.Bouchon y Cía Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8155,15 +8155,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Comercial Los Batros Ltda.</t>
+          <t>J.Bouchon Y Cía Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>20/03/2008</t>
+          <t>01/04/2008</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2713892&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2814315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>Modificación del Sistema de Disposición de Riles al Suelo, Mediante Micro Aspersión en la Bodega de Vinos de Comercial los Batros Ltda. Vinos Los Batros (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8198,12 +8198,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Comercial Los Batros Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>20/03/2008</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8221,7 +8221,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2713892&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8251,25 +8251,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8299,25 +8299,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,11 +8351,11 @@
         </is>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>11/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LA REGIONES VI Y VIII (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8395,15 +8395,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>11/01/2008</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2630709&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8443,15 +8443,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>429</v>
+        <v>30</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8461,7 +8461,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>PLANTA SEPARADORA DE SOLIDOS Y DISPOSICION DE RILES PARA RIEGO planta separadora de solidos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8486,30 +8486,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Moisés Arturo Coloma Cisternas</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>17</v>
+        <v>429</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>26/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2434014&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>PLANTA SEPARADORA DE SOLIDOS Y DISPOSICION DE RILES PARA RIEGO planta separadora de solidos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8534,30 +8534,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Moisés Arturo Coloma Cisternas</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>234</v>
+        <v>17</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>26/10/2007</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2434014&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8587,25 +8587,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8635,25 +8635,25 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8683,25 +8683,25 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8731,25 +8731,25 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8764,7 +8764,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8779,25 +8779,25 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>850</v>
+        <v>300</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8835,7 +8835,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8875,15 +8875,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8893,7 +8893,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8923,25 +8923,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8971,25 +8971,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Veronica Herrmann Lobos</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>14/05/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DIA Plan Regulador Comunal de Linares (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFÚRICO (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9014,12 +9014,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Linares</t>
+          <t>Veronica Herrmann Lobos</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9027,17 +9027,17 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>20/04/2007</t>
+          <t>14/05/2007</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles, Linares (e-seia)</t>
+          <t>DIA Plan Regulador Comunal de Linares (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9067,15 +9067,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ChIlebotanics S.A.</t>
+          <t>Ilustre Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>27/03/2007</t>
+          <t>20/04/2007</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041173&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2095117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9100,7 +9100,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Planta de Tratamiento de Riles, Linares (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9110,20 +9110,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>ChIlebotanics S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>800</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>27/03/2007</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9133,7 +9133,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2041173&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9167,21 +9167,21 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA DE LINARES EMPRESAS HN (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9206,30 +9206,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>06/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981667&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA DE LINARES EMPRESAS HN (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9254,20 +9254,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>06/02/2007</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1981667&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9315,17 +9315,17 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales para Feria Agrícola Linares, VII Región (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9350,30 +9350,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>S.A. Feria de los Agricultores</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>18/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1838428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales para Feria Agrícola Linares, VII Región (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9398,30 +9398,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>S.A. Feria de los Agricultores</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>18/12/2006</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1838428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9451,25 +9451,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9484,7 +9484,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9499,25 +9499,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA LINARES (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9542,16 +9542,16 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9580,7 +9580,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PLANTA FAENADORA LINARES (e-seia)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9590,30 +9590,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1793808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9628,7 +9628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9643,25 +9643,25 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9691,7 +9691,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Angie Ivonne Caro Astorga</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>23/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9709,7 +9709,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Acido Sulfurico a granel (e-seia)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9739,25 +9739,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Angie Ivonne Caro Astorga</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>23/10/2006</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1756603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Recolector de Residuos "el Boldo" (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9782,20 +9782,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Gonzalo Vicente Cancino Ilufi</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>11/10/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9805,7 +9805,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673013&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Recolector de Residuos "el Boldo" (e-seia)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9830,30 +9830,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Gonzalo Vicente Cancino Ilufi</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>11/10/2006</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1673013&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Oficina de Bodegas Bayer S.A. Linares (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9878,12 +9878,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>BAYER S.A.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -9891,17 +9891,17 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>01/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Drenaje Purísima Linares (e-seia)</t>
+          <t>Oficina de Bodegas Bayer S.A. Linares (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9931,15 +9931,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Agricola CALTEX Ltda .</t>
+          <t>BAYER S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>21/08/2006</t>
+          <t>01/09/2006</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9949,7 +9949,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1568008&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Drenaje Purísima Linares (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9974,20 +9974,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Agricola CALTEX Ltda .</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>21/08/2006</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1568008&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -10035,17 +10035,17 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10060,7 +10060,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de RILES y aguas servidas, Exportadora Unifrutti Traders Ltda., Planta Linares (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10070,30 +10070,30 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Juan José Villasante Pelaez</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>16/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1468427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Sistema de tratamiento de RILES y aguas servidas, Exportadora Unifrutti Traders Ltda., Planta Linares (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10118,20 +10118,20 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Juan José Villasante Pelaez</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>16/06/2006</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1468427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -10171,15 +10171,15 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>500</v>
+        <v>142</v>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -10227,17 +10227,17 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -10267,25 +10267,25 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -10323,17 +10323,17 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de RIles para Vitivinícola Loncomilla (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -10358,20 +10358,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Cooperativa Agrícola y Vitivinícola Loncomilla Limitada</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>90</v>
+        <v>4000</v>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -10381,7 +10381,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321799&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -10396,7 +10396,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>Sistema de Tratamiento de RIles para Vitivinícola Loncomilla (e-seia)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -10406,16 +10406,16 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Cooperativa Agrícola y Vitivinícola Loncomilla Limitada</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G210" t="inlineStr">
         <is>
@@ -10424,12 +10424,12 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1321799&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PLANTA RECUPERADORA DE POLIETILENO (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -10454,30 +10454,30 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>DO GWAN KIM KIM</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F211" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282375&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>PLANTA RECUPERADORA DE POLIETILENO (e-seia)</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -10502,30 +10502,30 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>DO GWAN KIM KIM</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1282375&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -10540,40 +10540,40 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Embalse Ancoa</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>55000</v>
+        <v>22</v>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -10588,26 +10588,26 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Embalse Ancoa</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>72</v>
+        <v>55000</v>
       </c>
       <c r="G214" t="inlineStr">
         <is>
@@ -10616,12 +10616,12 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1234487&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Manejo de Riles Bodega San Javier (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10646,30 +10646,30 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Viña Concha y Toro S.A.</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>660</v>
+        <v>72</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>19/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1168811&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10707,17 +10707,17 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>02/12/2005</t>
+          <t>19/12/2005</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136188&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1168811&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10732,7 +10732,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Manejo de Riles Bodega San Javier (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10742,30 +10742,30 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Viña Concha y Toro S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>3517</v>
+        <v>660</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>02/12/2005</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1136188&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10795,15 +10795,15 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -10813,7 +10813,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10843,15 +10843,15 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10891,15 +10891,15 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -10909,7 +10909,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10939,11 +10939,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10972,7 +10972,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10987,11 +10987,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Manejo de Riles de la Bodega de Vinos La Reserva de Caliboro (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11030,20 +11030,20 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Viña La Reserva de Caliboro S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>14/07/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887156&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Manejo de Riles de la Bodega de Vinos La Reserva de Caliboro (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11078,20 +11078,20 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Viña La Reserva de Caliboro S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>200</v>
+        <v>1600</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>14/07/2005</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -11101,7 +11101,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=887156&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11116,7 +11116,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11131,15 +11131,15 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -11149,7 +11149,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Mejoramiento y Ampliación Servicio APR Vara Gruesa, Linares (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11174,20 +11174,20 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Comité Agua Potable Rural Vara Gruesa</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>785</v>
+        <v>855</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=636656&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Mejoramiento y Ampliación Servicio APR Vara Gruesa, Linares (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11222,30 +11222,30 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Comité Agua Potable Rural Vara Gruesa</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>855</v>
+        <v>785</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=636656&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11275,15 +11275,15 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -11293,7 +11293,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11318,30 +11318,30 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>17/01/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGION DEL MAULE. (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11366,20 +11366,20 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>SEREMI de Vivienda y Bienes Nacionales, Región del Maule</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>17/01/2005</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=561657&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11419,15 +11419,15 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11467,25 +11467,25 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>30/04/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Nueva Ubicación del Colegio Amelia Troncoso (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11510,30 +11510,30 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Jorge Rambaldi Valenzuela y Compañía Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>10/03/2004</t>
+          <t>30/04/2004</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283565&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=339300&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11548,7 +11548,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Nueva Ubicación del Colegio Amelia Troncoso (e-seia)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11558,20 +11558,20 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Jorge Rambaldi Valenzuela y Compañía Limitada</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/03/2004</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -11581,7 +11581,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=283565&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11596,7 +11596,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11611,15 +11611,15 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -11629,7 +11629,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11644,7 +11644,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Estación de Servicio Av. León Bustos (e-seia)</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11654,20 +11654,20 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>100</v>
+        <v>6600</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>22/05/2003</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -11677,7 +11677,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86481&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11692,7 +11692,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Estación de Servicios Brasil-Esperanza (e-seia)</t>
+          <t>Estación de Servicio Av. León Bustos (e-seia)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11711,7 +11711,7 @@
         </is>
       </c>
       <c r="F237" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86481&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Modificación Plan regulador Linares (e-seia)</t>
+          <t>Estación de Servicios Brasil-Esperanza (e-seia)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11755,15 +11755,15 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>21/03/2003</t>
+          <t>22/05/2003</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -11773,7 +11773,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=62500&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=86597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11788,12 +11788,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Linares</t>
+          <t>Modificación Plan regulador Linares (e-seia)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -11803,15 +11803,15 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Nuevosur S. A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>17/10/2002</t>
+          <t>21/03/2003</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -11821,7 +11821,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=62500&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11836,40 +11836,40 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Linares</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Nuevosur S. A.</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>6590</v>
+        <v>9000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>17/10/2002</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF Camino a Yerbas Buenas esquina Avda. Circunvalación - Linares</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -11894,30 +11894,30 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Petroleos Transandinos SA.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>390</v>
+        <v>6590</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>08/04/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11932,7 +11932,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Estación de Servicio YPF Camino a Yerbas Buenas esquina Avda. Circunvalación - Linares</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -11942,30 +11942,30 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Petroleos Transandinos SA.</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>200</v>
+        <v>390</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>08/04/2002</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Diseño de Ingeniería de Agua Potable Rural Ballica la Torre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -11990,30 +11990,30 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>16/05/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Comunal de Linares en Zona Z-4</t>
+          <t>Diseño de Ingeniería de Agua Potable Rural Ballica la Torre</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -12043,15 +12043,15 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>09/05/2001</t>
+          <t>16/05/2001</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -12061,7 +12061,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Residuos Industriales Líquidos Starco S.A.</t>
+          <t>Modificación Plan Regulador Comunal de Linares en Zona Z-4</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -12091,25 +12091,25 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>STARCO S.A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>30/10/2000</t>
+          <t>09/05/2001</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Planta de Tratamiento de Residuos Industriales Líquidos Starco S.A.</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -12134,30 +12134,30 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>STARCO S.A.</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>30/10/2000</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Cementerio Parque Campo Sacro</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -12182,20 +12182,20 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Obispado de Linares</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F247" t="n">
-        <v>1500</v>
+        <v>110</v>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>11/02/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -12205,7 +12205,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural Localidad de San Antonio Encina</t>
+          <t>Cementerio Parque Campo Sacro</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -12235,15 +12235,15 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Obispado de Linares</t>
         </is>
       </c>
       <c r="F248" t="n">
-        <v>330</v>
+        <v>1500</v>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>22/11/1999</t>
+          <t>11/02/2000</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -12253,7 +12253,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2450&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2678&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural localidad de Guadantún</t>
+          <t>Construcción Sistema de Agua Potable Rural Localidad de San Antonio Encina</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -12287,7 +12287,7 @@
         </is>
       </c>
       <c r="F249" t="n">
-        <v>140</v>
+        <v>330</v>
       </c>
       <c r="G249" t="inlineStr">
         <is>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2451&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2450&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Agua Potable Rural localidad de Los Maitenes</t>
+          <t>Construcción Sistema de Agua Potable Rural localidad de Guadantún</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="F250" t="n">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="G250" t="inlineStr">
         <is>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2451&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -12364,7 +12364,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-458 Maitenes</t>
+          <t>Construcción Sistema de Agua Potable Rural localidad de Los Maitenes</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -12379,15 +12379,15 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Municipalidad de Linares</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>23/08/1999</t>
+          <t>22/11/1999</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2452&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -12412,7 +12412,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-464 Las Toscas</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-458 Maitenes</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -12431,7 +12431,7 @@
         </is>
       </c>
       <c r="F252" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G252" t="inlineStr">
         <is>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-482 Vara Gruesa</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-464 Las Toscas</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -12479,7 +12479,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G253" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Escuela F-501 Palmilla</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-482 Vara Gruesa</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -12527,7 +12527,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G254" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2212&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -12556,7 +12556,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Construcción Feria de Animales en la Comuna de Linares</t>
+          <t>Planta de Tratamiento de Aguas Servidas Escuela F-501 Palmilla</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -12571,25 +12571,25 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Santa Ema S.A.</t>
+          <t>Municipalidad de Linares</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>06/08/1999</t>
+          <t>23/08/1999</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2212&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -12604,7 +12604,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Construcción Feria de Animales en la Comuna de Linares</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -12614,30 +12614,30 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Sociedad de Inversiones Santa Ema S.A.</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>06/08/1999</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -12652,43 +12652,91 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Transcargo Ltda</t>
+        </is>
+      </c>
+      <c r="F257" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>13/04/1999</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+      <c r="C258" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E257" t="inlineStr">
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F257" t="n">
+      <c r="F258" t="n">
         <v>850000</v>
       </c>
-      <c r="G257" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
+      <c r="H258" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I257" t="inlineStr">
+      <c r="I258" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J257" t="inlineStr">
+      <c r="J258" t="inlineStr">
         <is>
           <t>Linares</t>
         </is>

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,26 +3496,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5080,26 +5080,26 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,26 +5128,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -3448,26 +3448,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>50000</v>
+        <v>1200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,26 +3496,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>CENTRAL HIDROELÉCTRICA EMBALSE ANCOA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>HIDROELÉCTRICA EMBALSE ANCOA SpA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1200</v>
+        <v>50000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128971209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -5080,26 +5080,26 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Besalco Construcciones S.A</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,26 +5128,26 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>Central hidroeléctrica Túnel Melado Obras de Generación y de Transmisión</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Besalco Construcciones S.A</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5827963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,16 +6674,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Séptima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Watts S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -6692,12 +6692,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Planta separadora de sólidos y disposición de riles en riego (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,16 +6722,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Séptima</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Watts S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -6740,12 +6740,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3971951&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">

--- a/data/Linares.xlsx
+++ b/data/Linares.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>09/11/2023</t>
+          <t>16/11/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
